--- a/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12000" windowHeight="10155" tabRatio="878" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12000" windowHeight="10155" tabRatio="878" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM category" sheetId="24" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Proposed Revision_ontology'!$A$3:$T$271</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Proposed Revision_ontology IRIs'!$A$3:$K$278</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12492" uniqueCount="2700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12605" uniqueCount="2813">
   <si>
     <t>abdominal pain</t>
   </si>
@@ -11070,6 +11070,345 @@
       </rPr>
       <t>tested</t>
     </r>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/eupath/icemr.owl#prism_id</t>
+  </si>
+  <si>
+    <t>PRISM ID</t>
+  </si>
+  <si>
+    <t>PRISM_0000001</t>
+  </si>
+  <si>
+    <t>PRISM_0000002</t>
+  </si>
+  <si>
+    <t>PRISM_0000003</t>
+  </si>
+  <si>
+    <t>PRISM_0000004</t>
+  </si>
+  <si>
+    <t>PRISM_0000005</t>
+  </si>
+  <si>
+    <t>PRISM_0000006</t>
+  </si>
+  <si>
+    <t>PRISM_0000007</t>
+  </si>
+  <si>
+    <t>PRISM_0000008</t>
+  </si>
+  <si>
+    <t>PRISM_0000009</t>
+  </si>
+  <si>
+    <t>PRISM_0000010</t>
+  </si>
+  <si>
+    <t>PRISM_0000011</t>
+  </si>
+  <si>
+    <t>PRISM_0000012</t>
+  </si>
+  <si>
+    <t>PRISM_0000013</t>
+  </si>
+  <si>
+    <t>PRISM_0000014</t>
+  </si>
+  <si>
+    <t>PRISM_0000015</t>
+  </si>
+  <si>
+    <t>PRISM_0000016</t>
+  </si>
+  <si>
+    <t>PRISM_0000017</t>
+  </si>
+  <si>
+    <t>PRISM_0000018</t>
+  </si>
+  <si>
+    <t>PRISM_0000019</t>
+  </si>
+  <si>
+    <t>PRISM_0000020</t>
+  </si>
+  <si>
+    <t>PRISM_0000021</t>
+  </si>
+  <si>
+    <t>PRISM_0000022</t>
+  </si>
+  <si>
+    <t>PRISM_0000023</t>
+  </si>
+  <si>
+    <t>PRISM_0000024</t>
+  </si>
+  <si>
+    <t>PRISM_0000025</t>
+  </si>
+  <si>
+    <t>PRISM_0000026</t>
+  </si>
+  <si>
+    <t>PRISM_0000027</t>
+  </si>
+  <si>
+    <t>PRISM_0000028</t>
+  </si>
+  <si>
+    <t>PRISM_0000029</t>
+  </si>
+  <si>
+    <t>PRISM_0000030</t>
+  </si>
+  <si>
+    <t>PRISM_0000031</t>
+  </si>
+  <si>
+    <t>PRISM_0000032</t>
+  </si>
+  <si>
+    <t>PRISM_0000033</t>
+  </si>
+  <si>
+    <t>PRISM_0000034</t>
+  </si>
+  <si>
+    <t>PRISM_0000035</t>
+  </si>
+  <si>
+    <t>PRISM_0000036</t>
+  </si>
+  <si>
+    <t>PRISM_0000037</t>
+  </si>
+  <si>
+    <t>PRISM_0000038</t>
+  </si>
+  <si>
+    <t>PRISM_0000039</t>
+  </si>
+  <si>
+    <t>PRISM_0000040</t>
+  </si>
+  <si>
+    <t>PRISM_0000041</t>
+  </si>
+  <si>
+    <t>PRISM_0000042</t>
+  </si>
+  <si>
+    <t>PRISM_0000043</t>
+  </si>
+  <si>
+    <t>PRISM_0000044</t>
+  </si>
+  <si>
+    <t>PRISM_0000045</t>
+  </si>
+  <si>
+    <t>PRISM_0000046</t>
+  </si>
+  <si>
+    <t>PRISM_0000047</t>
+  </si>
+  <si>
+    <t>PRISM_0000048</t>
+  </si>
+  <si>
+    <t>PRISM_0000049</t>
+  </si>
+  <si>
+    <t>PRISM_0000050</t>
+  </si>
+  <si>
+    <t>PRISM_0000051</t>
+  </si>
+  <si>
+    <t>PRISM_0000052</t>
+  </si>
+  <si>
+    <t>PRISM_0000053</t>
+  </si>
+  <si>
+    <t>PRISM_0000054</t>
+  </si>
+  <si>
+    <t>PRISM_0000055</t>
+  </si>
+  <si>
+    <t>PRISM_0000056</t>
+  </si>
+  <si>
+    <t>PRISM_0000057</t>
+  </si>
+  <si>
+    <t>PRISM_0000058</t>
+  </si>
+  <si>
+    <t>PRISM_0000059</t>
+  </si>
+  <si>
+    <t>PRISM_0000060</t>
+  </si>
+  <si>
+    <t>PRISM_0000061</t>
+  </si>
+  <si>
+    <t>PRISM_0000062</t>
+  </si>
+  <si>
+    <t>PRISM_0000063</t>
+  </si>
+  <si>
+    <t>PRISM_0000064</t>
+  </si>
+  <si>
+    <t>PRISM_0000065</t>
+  </si>
+  <si>
+    <t>PRISM_0000066</t>
+  </si>
+  <si>
+    <t>PRISM_0000067</t>
+  </si>
+  <si>
+    <t>PRISM_0000068</t>
+  </si>
+  <si>
+    <t>PRISM_0000069</t>
+  </si>
+  <si>
+    <t>PRISM_0000070</t>
+  </si>
+  <si>
+    <t>PRISM_0000071</t>
+  </si>
+  <si>
+    <t>PRISM_0000072</t>
+  </si>
+  <si>
+    <t>PRISM_0000073</t>
+  </si>
+  <si>
+    <t>PRISM_0000074</t>
+  </si>
+  <si>
+    <t>PRISM_0000075</t>
+  </si>
+  <si>
+    <t>PRISM_0000076</t>
+  </si>
+  <si>
+    <t>PRISM_0000077</t>
+  </si>
+  <si>
+    <t>PRISM_0000078</t>
+  </si>
+  <si>
+    <t>PRISM_0000079</t>
+  </si>
+  <si>
+    <t>PRISM_0000080</t>
+  </si>
+  <si>
+    <t>PRISM_0000081</t>
+  </si>
+  <si>
+    <t>PRISM_0000082</t>
+  </si>
+  <si>
+    <t>PRISM_0000083</t>
+  </si>
+  <si>
+    <t>PRISM_0000084</t>
+  </si>
+  <si>
+    <t>PRISM_0000085</t>
+  </si>
+  <si>
+    <t>PRISM_0000086</t>
+  </si>
+  <si>
+    <t>PRISM_0000087</t>
+  </si>
+  <si>
+    <t>PRISM_0000088</t>
+  </si>
+  <si>
+    <t>PRISM_0000089</t>
+  </si>
+  <si>
+    <t>PRISM_0000090</t>
+  </si>
+  <si>
+    <t>PRISM_0000091</t>
+  </si>
+  <si>
+    <t>PRISM_0000092</t>
+  </si>
+  <si>
+    <t>PRISM_0000093</t>
+  </si>
+  <si>
+    <t>PRISM_0000094</t>
+  </si>
+  <si>
+    <t>PRISM_0000095</t>
+  </si>
+  <si>
+    <t>PRISM_0000096</t>
+  </si>
+  <si>
+    <t>PRISM_0000097</t>
+  </si>
+  <si>
+    <t>PRISM_0000098</t>
+  </si>
+  <si>
+    <t>PRISM_0000099</t>
+  </si>
+  <si>
+    <t>PRISM_0000100</t>
+  </si>
+  <si>
+    <t>PRISM_0000101</t>
+  </si>
+  <si>
+    <t>PRISM_0000102</t>
+  </si>
+  <si>
+    <t>PRISM_0000103</t>
+  </si>
+  <si>
+    <t>PRISM_0000104</t>
+  </si>
+  <si>
+    <t>PRISM_0000105</t>
+  </si>
+  <si>
+    <t>PRISM_0000106</t>
+  </si>
+  <si>
+    <t>PRISM_0000107</t>
+  </si>
+  <si>
+    <t>PRISM_0000108</t>
+  </si>
+  <si>
+    <t>PRISM_0000109</t>
+  </si>
+  <si>
+    <t>PRISM_0000110</t>
+  </si>
+  <si>
+    <t>PRISM_0000111</t>
   </si>
 </sst>
 </file>
@@ -13663,7 +14002,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -13914,6 +14253,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1822" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1825">
     <cellStyle name="20% - Accent1" xfId="1799" builtinId="30" customBuiltin="1"/>
@@ -16017,7 +16359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18950,11 +19292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18965,10 +19307,13 @@
     <col min="4" max="4" width="30.85546875" style="118" customWidth="1"/>
     <col min="5" max="5" width="38" style="143" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="143" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="143"/>
+    <col min="7" max="7" width="28.28515625" style="143" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="143" customWidth="1"/>
+    <col min="9" max="9" width="24" style="143" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="152" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="152" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
         <v>1782</v>
       </c>
@@ -18987,11 +19332,14 @@
       <c r="F1" s="151" t="s">
         <v>1817</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="164" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H1" s="151" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="152" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="152" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="151"/>
       <c r="B2" s="151"/>
       <c r="C2" s="164" t="s">
@@ -19006,2468 +19354,2862 @@
       <c r="F2" s="151" t="s">
         <v>1820</v>
       </c>
-      <c r="G2" s="151" t="s">
+      <c r="G2" s="174" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H2" s="151" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
-        <v>1012</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1013</v>
+        <v>2629</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="170" t="s">
-        <v>458</v>
+        <v>1839</v>
+      </c>
+      <c r="D3" s="171" t="s">
+        <v>808</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>849</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
-        <v>1014</v>
+        <v>2654</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1013</v>
+        <v>2627</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="170" t="s">
-        <v>780</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>850</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>850</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1906</v>
+      </c>
+      <c r="D4" s="171" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87" t="s">
+        <v>2703</v>
+      </c>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>1034</v>
+        <v>1583</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>2617</v>
+        <v>2629</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D5" s="171" t="s">
-        <v>359</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>1190</v>
       </c>
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="86" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="87" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>1573</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="171" t="s">
-        <v>1329</v>
+        <v>957</v>
+      </c>
+      <c r="D6" s="167" t="s">
+        <v>1532</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>565</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>2705</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>744</v>
+      </c>
+      <c r="I6" s="143"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>2619</v>
+        <v>2631</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>1860</v>
+        <v>959</v>
       </c>
       <c r="D7" s="171" t="s">
-        <v>540</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>543</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>543</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87" t="s">
+        <v>2706</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
-        <v>1009</v>
+        <v>960</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D8" s="167" t="s">
-        <v>1233</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>545</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>564</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>691</v>
+      </c>
+      <c r="I8" s="143"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="D9" s="171" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>554</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>554</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87" t="s">
+        <v>2708</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>747</v>
+      </c>
+      <c r="I9" s="143"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
-        <v>992</v>
+        <v>1189</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D10" s="171" t="s">
-        <v>556</v>
+        <v>809</v>
+      </c>
+      <c r="D10" s="172" t="s">
+        <v>809</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>558</v>
+        <v>858</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>558</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>887</v>
+      </c>
+      <c r="I10" s="143"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
-        <v>1712</v>
+        <v>1043</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>2621</v>
+        <v>2639</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>1873</v>
+        <v>1841</v>
       </c>
       <c r="D11" s="171" t="s">
-        <v>2665</v>
+        <v>768</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>559</v>
+        <v>773</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>559</v>
-      </c>
-      <c r="G11" s="86" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>2710</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>1147</v>
+        <v>1582</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D12" s="171" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>561</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>561</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87" t="s">
+        <v>2711</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>886</v>
+      </c>
+      <c r="I12" s="143"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
-        <v>954</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>2622</v>
+        <v>967</v>
+      </c>
+      <c r="B13" s="165" t="s">
+        <v>2645</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>1863</v>
+        <v>339</v>
       </c>
       <c r="D13" s="171" t="s">
-        <v>2656</v>
+        <v>2698</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>537</v>
+        <v>1555</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>537</v>
-      </c>
-      <c r="G13" s="86" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1555</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>2712</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>731</v>
+      </c>
+      <c r="I13" s="143"/>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
-        <v>955</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>2622</v>
+        <v>969</v>
+      </c>
+      <c r="B14" s="165" t="s">
+        <v>2645</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>1859</v>
+        <v>340</v>
       </c>
       <c r="D14" s="171" t="s">
-        <v>535</v>
+        <v>2699</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>541</v>
+        <v>1554</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>541</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>2713</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>730</v>
+      </c>
+      <c r="I14" s="143"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>2622</v>
+        <v>971</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>2623</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>1478</v>
+        <v>329</v>
       </c>
       <c r="D15" s="171" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>542</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>542</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87" t="s">
+        <v>2714</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="I15" s="143"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
-        <v>960</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>2622</v>
+        <v>973</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>2623</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="D16" s="171" t="s">
-        <v>545</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>546</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>546</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
+        <v>2715</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
-        <v>994</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>2622</v>
+        <v>975</v>
+      </c>
+      <c r="B17" s="165" t="s">
+        <v>2645</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="D17" s="171" t="s">
-        <v>393</v>
+        <v>2697</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>547</v>
+        <v>1556</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1556</v>
+      </c>
+      <c r="G17" s="87" t="s">
+        <v>2716</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>732</v>
+      </c>
+      <c r="I17" s="143"/>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>2622</v>
+        <v>2634</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="D18" s="171" t="s">
-        <v>2662</v>
+        <v>317</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>553</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>2717</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="I18" s="143"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>1027</v>
+        <v>976</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>2622</v>
+        <v>2647</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>150</v>
+        <v>1842</v>
       </c>
       <c r="D19" s="171" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>549</v>
+        <v>868</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>2718</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>922</v>
+      </c>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>1044</v>
+        <v>1584</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="171" t="s">
-        <v>2678</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>550</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>890</v>
+      </c>
+      <c r="I20" s="143"/>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>951</v>
+        <v>1035</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>2618</v>
+        <v>2639</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>1862</v>
+        <v>28</v>
       </c>
       <c r="D21" s="171" t="s">
-        <v>566</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>570</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>570</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87" t="s">
+        <v>2720</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>914</v>
+      </c>
+      <c r="I21" s="143"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>952</v>
+        <v>987</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>2618</v>
+        <v>2639</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="D22" s="171" t="s">
-        <v>567</v>
+        <v>769</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>571</v>
+        <v>774</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>571</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>2721</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>953</v>
+        <v>1200</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>2618</v>
+        <v>2629</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D23" s="171" t="s">
-        <v>569</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>573</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>573</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
-        <v>1564</v>
+        <v>810</v>
+      </c>
+      <c r="D23" s="172" t="s">
+        <v>810</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87" t="s">
+        <v>2722</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>889</v>
+      </c>
+      <c r="I23" s="143"/>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
+        <v>2652</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="168" t="s">
-        <v>313</v>
+        <v>2627</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D24" s="171" t="s">
+        <v>1907</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="87"/>
-      <c r="G24" s="86"/>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="H24" s="86"/>
+      <c r="I24" s="143"/>
+    </row>
+    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>1002</v>
+        <v>2653</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>2618</v>
+        <v>2627</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>1858</v>
+        <v>1905</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>568</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>572</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>572</v>
-      </c>
-      <c r="G25" s="86" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1908</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H25" s="86"/>
+      <c r="I25" s="143"/>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>971</v>
-      </c>
-      <c r="B26" s="109" t="s">
-        <v>2623</v>
+        <v>1619</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>2631</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="D26" s="171" t="s">
-        <v>783</v>
-      </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="86" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>799</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>799</v>
+      </c>
+      <c r="G26" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>879</v>
+      </c>
+      <c r="I26" s="143"/>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>973</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>2623</v>
+        <v>1585</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>2629</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="171" t="s">
-        <v>784</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>1192</v>
       </c>
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
-      <c r="G27" s="86" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="87" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>892</v>
+      </c>
+      <c r="I27" s="143"/>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>2623</v>
+        <v>963</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>991</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="D28" s="171" t="s">
-        <v>681</v>
-      </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="86" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>767</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>767</v>
+      </c>
+      <c r="G28" s="87" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>917</v>
+      </c>
+      <c r="I28" s="143"/>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B29" s="109" t="s">
-        <v>2623</v>
+        <v>1046</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>2629</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="171" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="86" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+      <c r="D29" s="172" t="s">
+        <v>811</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>859</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>859</v>
+      </c>
+      <c r="G29" s="87" t="s">
+        <v>2728</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>891</v>
+      </c>
+      <c r="I29" s="143"/>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B30" s="109" t="s">
-        <v>2623</v>
+        <v>1622</v>
+      </c>
+      <c r="B30" s="165" t="s">
+        <v>2643</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="D30" s="171" t="s">
-        <v>684</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="86" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B31" s="109" t="s">
-        <v>2623</v>
+        <v>433</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G30" s="87" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>736</v>
+      </c>
+      <c r="I30" s="143"/>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="143" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1680</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>334</v>
+        <v>1846</v>
       </c>
       <c r="D31" s="171" t="s">
-        <v>682</v>
-      </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="86" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1571</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="87" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H31" s="86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B32" s="109" t="s">
-        <v>2623</v>
+        <v>1589</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>2629</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" s="171" t="s">
-        <v>685</v>
+        <v>46</v>
+      </c>
+      <c r="D32" s="173" t="s">
+        <v>1197</v>
       </c>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
-      <c r="G32" s="86" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="87" t="s">
+        <v>2731</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>902</v>
+      </c>
+      <c r="I32" s="143"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>2623</v>
+        <v>2651</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>2627</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="D33" s="171" t="s">
-        <v>683</v>
+        <v>277</v>
       </c>
       <c r="E33" s="87"/>
       <c r="F33" s="87"/>
-      <c r="G33" s="86" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="87" t="s">
+        <v>2732</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>1840</v>
+        <v>55</v>
       </c>
       <c r="D34" s="171" t="s">
-        <v>460</v>
-      </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="86" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="G34" s="87" t="s">
+        <v>2733</v>
+      </c>
+      <c r="H34" s="86" t="s">
+        <v>690</v>
+      </c>
+      <c r="I34" s="143"/>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87" t="s">
-        <v>1003</v>
+        <v>1579</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>1851</v>
+        <v>59</v>
       </c>
       <c r="D35" s="171" t="s">
-        <v>375</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="86" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>739</v>
+      </c>
+      <c r="I35" s="143"/>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87" t="s">
-        <v>1006</v>
+        <v>1201</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D36" s="171" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="86" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+      <c r="D36" s="172" t="s">
+        <v>814</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>861</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>861</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>897</v>
+      </c>
+      <c r="I36" s="143"/>
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
-        <v>1015</v>
+        <v>1592</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>957</v>
-      </c>
-      <c r="D37" s="167" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="F37" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="G37" s="86" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D37" s="173" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87" t="s">
+        <v>2736</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>896</v>
+      </c>
+      <c r="I37" s="143"/>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
-        <v>1579</v>
+        <v>995</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D38" s="171" t="s">
-        <v>517</v>
+        <v>2660</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>669</v>
-      </c>
-      <c r="G38" s="86" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>884</v>
+      </c>
+      <c r="I38" s="143"/>
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>2626</v>
+        <v>1620</v>
+      </c>
+      <c r="B39" s="165" t="s">
+        <v>2641</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>1855</v>
+        <v>63</v>
       </c>
       <c r="D39" s="171" t="s">
-        <v>406</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="86" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2688</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F39" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G39" s="87" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>726</v>
+      </c>
+      <c r="I39" s="143"/>
+    </row>
+    <row r="40" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>2626</v>
+        <v>1621</v>
+      </c>
+      <c r="B40" s="165" t="s">
+        <v>2642</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D40" s="171" t="s">
-        <v>671</v>
+        <v>2692</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>672</v>
+        <v>1794</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>672</v>
-      </c>
-      <c r="G40" s="86" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1794</v>
+      </c>
+      <c r="G40" s="87" t="s">
+        <v>2739</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="I40" s="143"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="87" t="s">
-        <v>1163</v>
+        <v>1628</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>2626</v>
+        <v>2637</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>331</v>
+        <v>67</v>
       </c>
       <c r="D41" s="171" t="s">
-        <v>670</v>
+        <v>2657</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>676</v>
+        <v>1802</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>676</v>
-      </c>
-      <c r="G41" s="86" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+      <c r="G41" s="87" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87" t="s">
-        <v>1636</v>
+        <v>996</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="171" t="s">
-        <v>675</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="86" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+      <c r="D42" s="172" t="s">
+        <v>813</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>856</v>
+      </c>
+      <c r="F42" s="87" t="s">
+        <v>856</v>
+      </c>
+      <c r="G42" s="87" t="s">
+        <v>2741</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>895</v>
+      </c>
+      <c r="I42" s="143"/>
+    </row>
+    <row r="43" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
-        <v>1648</v>
+        <v>1000</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="D43" s="171" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="86" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2662</v>
+      </c>
+      <c r="E43" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="G43" s="87" t="s">
+        <v>2742</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>694</v>
+      </c>
+      <c r="I43" s="143"/>
+    </row>
+    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87" t="s">
-        <v>2654</v>
+        <v>1586</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D44" s="171" t="s">
-        <v>1909</v>
+        <v>68</v>
+      </c>
+      <c r="D44" s="173" t="s">
+        <v>1195</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
-      <c r="G44" s="86"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="87" t="s">
+        <v>2743</v>
+      </c>
+      <c r="H44" s="86" t="s">
+        <v>898</v>
+      </c>
+      <c r="I44" s="143"/>
+    </row>
+    <row r="45" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
-        <v>2652</v>
+        <v>990</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>1904</v>
+        <v>1850</v>
       </c>
       <c r="D45" s="171" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="86"/>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2659</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="G45" s="87" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>695</v>
+      </c>
+      <c r="I45" s="143"/>
+    </row>
+    <row r="46" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="87" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>2627</v>
+        <v>1630</v>
+      </c>
+      <c r="B46" s="165" t="s">
+        <v>2641</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>1905</v>
+        <v>71</v>
       </c>
       <c r="D46" s="171" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="86"/>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2679</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>2745</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>729</v>
+      </c>
+      <c r="I46" s="143"/>
+    </row>
+    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="87" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>2627</v>
+        <v>1631</v>
+      </c>
+      <c r="B47" s="165" t="s">
+        <v>2642</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D47" s="171" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="86" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2680</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F47" s="87" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G47" s="87" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>724</v>
+      </c>
+      <c r="I47" s="143"/>
+    </row>
+    <row r="48" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="87" t="s">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>1839</v>
+        <v>1851</v>
       </c>
       <c r="D48" s="171" t="s">
-        <v>808</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>857</v>
-      </c>
-      <c r="F48" s="87" t="s">
-        <v>857</v>
-      </c>
-      <c r="G48" s="86" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87" t="s">
+        <v>2747</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>748</v>
+      </c>
+      <c r="I48" s="143"/>
+    </row>
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="87" t="s">
-        <v>1189</v>
+        <v>1635</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>2629</v>
+        <v>2647</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>809</v>
-      </c>
-      <c r="D49" s="172" t="s">
-        <v>809</v>
-      </c>
-      <c r="E49" s="87" t="s">
-        <v>858</v>
-      </c>
-      <c r="F49" s="87" t="s">
-        <v>858</v>
-      </c>
-      <c r="G49" s="86" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D49" s="171" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>924</v>
+      </c>
+      <c r="I49" s="143"/>
+    </row>
+    <row r="50" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="87" t="s">
-        <v>1200</v>
+        <v>1034</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>2629</v>
+        <v>2617</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>810</v>
-      </c>
-      <c r="D50" s="172" t="s">
-        <v>810</v>
+        <v>1852</v>
+      </c>
+      <c r="D50" s="171" t="s">
+        <v>359</v>
       </c>
       <c r="E50" s="87"/>
       <c r="F50" s="87"/>
-      <c r="G50" s="86" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="87" t="s">
+        <v>2749</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>746</v>
+      </c>
+      <c r="I50" s="143"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="87" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>2629</v>
+        <v>1625</v>
+      </c>
+      <c r="B51" s="165" t="s">
+        <v>2641</v>
       </c>
       <c r="C51" s="87" t="s">
-        <v>811</v>
-      </c>
-      <c r="D51" s="172" t="s">
-        <v>811</v>
+        <v>76</v>
+      </c>
+      <c r="D51" s="171" t="s">
+        <v>2689</v>
       </c>
       <c r="E51" s="87" t="s">
-        <v>859</v>
+        <v>1800</v>
       </c>
       <c r="F51" s="87" t="s">
-        <v>859</v>
-      </c>
-      <c r="G51" s="86" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+      <c r="G51" s="87" t="s">
+        <v>2750</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="87" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>2629</v>
+        <v>1626</v>
+      </c>
+      <c r="B52" s="165" t="s">
+        <v>2642</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="173" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="86" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D52" s="171" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F52" s="87" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G52" s="87" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H52" s="86" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="87" t="s">
-        <v>1583</v>
+        <v>1006</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="173" t="s">
-        <v>1190</v>
+        <v>1853</v>
+      </c>
+      <c r="D53" s="171" t="s">
+        <v>376</v>
       </c>
       <c r="E53" s="87"/>
       <c r="F53" s="87"/>
-      <c r="G53" s="86" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="87" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>749</v>
+      </c>
+      <c r="I53" s="143"/>
+    </row>
+    <row r="54" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B54" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D54" s="173" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="E54" s="87"/>
       <c r="F54" s="87"/>
-      <c r="G54" s="86" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="87" t="s">
+        <v>2753</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>900</v>
+      </c>
+      <c r="I54" s="143"/>
+    </row>
+    <row r="55" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>1585</v>
+        <v>1051</v>
       </c>
       <c r="B55" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C55" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="173" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="86" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+      <c r="D55" s="172" t="s">
+        <v>815</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>862</v>
+      </c>
+      <c r="F55" s="87" t="s">
+        <v>862</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>2754</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>899</v>
+      </c>
+      <c r="I55" s="143"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
-        <v>1586</v>
+        <v>1681</v>
       </c>
       <c r="B56" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="173" t="s">
-        <v>1195</v>
+        <v>80</v>
+      </c>
+      <c r="D56" s="171" t="s">
+        <v>804</v>
       </c>
       <c r="E56" s="87"/>
       <c r="F56" s="87"/>
-      <c r="G56" s="86" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="87" t="s">
+        <v>2755</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="87" t="s">
-        <v>1587</v>
+        <v>1004</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>2629</v>
+        <v>2647</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="173" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="86" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1854</v>
+      </c>
+      <c r="D57" s="170" t="s">
+        <v>779</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="F57" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>2756</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="87" t="s">
-        <v>1588</v>
+        <v>1007</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="173" t="s">
-        <v>1193</v>
+        <v>1855</v>
+      </c>
+      <c r="D58" s="171" t="s">
+        <v>406</v>
       </c>
       <c r="E58" s="87"/>
       <c r="F58" s="87"/>
-      <c r="G58" s="86" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="87" t="s">
+        <v>2757</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="87" t="s">
-        <v>1589</v>
+        <v>952</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2629</v>
+        <v>2618</v>
       </c>
       <c r="C59" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="173" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="86" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1856</v>
+      </c>
+      <c r="D59" s="171" t="s">
+        <v>567</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="F59" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G59" s="87" t="s">
+        <v>2758</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="87" t="s">
-        <v>1590</v>
+        <v>953</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2629</v>
+        <v>2618</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="173" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="86" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1857</v>
+      </c>
+      <c r="D60" s="171" t="s">
+        <v>569</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" s="87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G60" s="87" t="s">
+        <v>2759</v>
+      </c>
+      <c r="H60" s="86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="87" t="s">
-        <v>1591</v>
+        <v>1002</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2629</v>
+        <v>2618</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="173" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="86" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+      <c r="D61" s="171" t="s">
+        <v>568</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="F61" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G61" s="87" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="87" t="s">
-        <v>1592</v>
+        <v>955</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="173" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="86" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1859</v>
+      </c>
+      <c r="D62" s="171" t="s">
+        <v>535</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="F62" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" s="87" t="s">
+        <v>2761</v>
+      </c>
+      <c r="H62" s="86" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="87" t="s">
-        <v>1593</v>
+        <v>1629</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="173" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="86" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+      <c r="D63" s="171" t="s">
+        <v>536</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>542</v>
+      </c>
+      <c r="F63" s="87" t="s">
+        <v>542</v>
+      </c>
+      <c r="G63" s="87" t="s">
+        <v>2762</v>
+      </c>
+      <c r="H63" s="86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="87" t="s">
-        <v>1201</v>
+        <v>993</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>814</v>
-      </c>
-      <c r="D64" s="172" t="s">
-        <v>814</v>
+        <v>1860</v>
+      </c>
+      <c r="D64" s="171" t="s">
+        <v>540</v>
       </c>
       <c r="E64" s="87" t="s">
-        <v>861</v>
+        <v>543</v>
       </c>
       <c r="F64" s="87" t="s">
-        <v>861</v>
-      </c>
-      <c r="G64" s="86" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="G64" s="87" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H64" s="86" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="87" t="s">
-        <v>995</v>
+        <v>1645</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D65" s="171" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="E65" s="87" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="F65" s="87" t="s">
-        <v>765</v>
-      </c>
-      <c r="G65" s="86" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="G65" s="87" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H65" s="86" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="87" t="s">
-        <v>996</v>
+        <v>1567</v>
       </c>
       <c r="B66" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D66" s="172" t="s">
-        <v>813</v>
+        <v>812</v>
+      </c>
+      <c r="D66" s="171" t="s">
+        <v>812</v>
       </c>
       <c r="E66" s="87" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="F66" s="87" t="s">
-        <v>856</v>
-      </c>
-      <c r="G66" s="86" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="G66" s="87" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H66" s="86" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="87" t="s">
-        <v>1051</v>
+        <v>1588</v>
       </c>
       <c r="B67" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>815</v>
-      </c>
-      <c r="D67" s="172" t="s">
-        <v>815</v>
-      </c>
-      <c r="E67" s="87" t="s">
-        <v>862</v>
-      </c>
-      <c r="F67" s="87" t="s">
-        <v>862</v>
-      </c>
-      <c r="G67" s="86" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D67" s="173" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87" t="s">
+        <v>2766</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="87" t="s">
-        <v>1681</v>
+        <v>1202</v>
       </c>
       <c r="B68" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C68" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="171" t="s">
-        <v>804</v>
+        <v>100</v>
+      </c>
+      <c r="D68" s="172" t="s">
+        <v>816</v>
       </c>
       <c r="E68" s="87"/>
       <c r="F68" s="87"/>
-      <c r="G68" s="86" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="87" t="s">
+        <v>2767</v>
+      </c>
+      <c r="H68" s="86" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>1567</v>
+        <v>1580</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>812</v>
+        <v>102</v>
       </c>
       <c r="D69" s="171" t="s">
-        <v>812</v>
+        <v>671</v>
       </c>
       <c r="E69" s="87" t="s">
-        <v>860</v>
+        <v>672</v>
       </c>
       <c r="F69" s="87" t="s">
-        <v>860</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="G69" s="87" t="s">
+        <v>2768</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>1202</v>
+        <v>1011</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>2629</v>
+        <v>991</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="172" t="s">
-        <v>816</v>
+        <v>1455</v>
+      </c>
+      <c r="D70" s="171" t="s">
+        <v>2674</v>
       </c>
       <c r="E70" s="87"/>
       <c r="F70" s="87"/>
-      <c r="G70" s="86" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="87" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H70" s="86" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="87" t="s">
-        <v>1685</v>
+        <v>1012</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>2629</v>
+        <v>1013</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="172" t="s">
-        <v>817</v>
-      </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="86" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D71" s="170" t="s">
+        <v>458</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>849</v>
+      </c>
+      <c r="F71" s="87" t="s">
+        <v>849</v>
+      </c>
+      <c r="G71" s="87" t="s">
+        <v>2770</v>
+      </c>
+      <c r="H71" s="86" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="87" t="s">
-        <v>1566</v>
+        <v>1590</v>
       </c>
       <c r="B72" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C72" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="172" t="s">
-        <v>846</v>
+        <v>113</v>
+      </c>
+      <c r="D72" s="173" t="s">
+        <v>1198</v>
       </c>
       <c r="E72" s="87"/>
       <c r="F72" s="87"/>
-      <c r="G72" s="86" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="87" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H72" s="86" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="87" t="s">
-        <v>1204</v>
+        <v>985</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D73" s="172" t="s">
-        <v>818</v>
+        <v>122</v>
+      </c>
+      <c r="D73" s="171" t="s">
+        <v>806</v>
       </c>
       <c r="E73" s="87" t="s">
-        <v>863</v>
+        <v>291</v>
       </c>
       <c r="F73" s="87" t="s">
-        <v>863</v>
-      </c>
-      <c r="G73" s="86" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G73" s="87" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="87" t="s">
-        <v>1037</v>
+        <v>1685</v>
       </c>
       <c r="B74" s="49" t="s">
         <v>2629</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D74" s="170" t="s">
-        <v>838</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>867</v>
-      </c>
-      <c r="F74" s="87" t="s">
-        <v>867</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D74" s="172" t="s">
+        <v>817</v>
+      </c>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87" t="s">
+        <v>2773</v>
+      </c>
+      <c r="H74" s="86" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="87" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="B75" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C75" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="170" t="s">
+        <v>780</v>
+      </c>
+      <c r="E75" s="87" t="s">
+        <v>850</v>
+      </c>
+      <c r="F75" s="87" t="s">
+        <v>850</v>
+      </c>
+      <c r="G75" s="87" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="87" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B76" s="165" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C76" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="171" t="s">
+        <v>453</v>
+      </c>
+      <c r="E76" s="87" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F76" s="87" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G76" s="87" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H76" s="86" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="143" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D77" s="171" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="G77" s="87" t="s">
+        <v>2776</v>
+      </c>
+      <c r="H77" s="86" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="87" t="s">
+        <v>951</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C78" s="87" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D78" s="171" t="s">
+        <v>566</v>
+      </c>
+      <c r="E78" s="87" t="s">
+        <v>570</v>
+      </c>
+      <c r="F78" s="87" t="s">
+        <v>570</v>
+      </c>
+      <c r="G78" s="87" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H78" s="86" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="87" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B79" s="165" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C79" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="171" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E79" s="87" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F79" s="87" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G79" s="87" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H79" s="86" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="87" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B80" s="165" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C80" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="171" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E80" s="87" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F80" s="87" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G80" s="87" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H80" s="86" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="87" t="s">
+        <v>954</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C81" s="87" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D81" s="171" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E81" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="F81" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" s="87" t="s">
+        <v>2780</v>
+      </c>
+      <c r="H81" s="86" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="87" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C82" s="87" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D82" s="171" t="s">
+        <v>771</v>
+      </c>
+      <c r="E82" s="87" t="s">
+        <v>772</v>
+      </c>
+      <c r="F82" s="87" t="s">
+        <v>772</v>
+      </c>
+      <c r="G82" s="87" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H82" s="86" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="87" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B83" s="165" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C83" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="171" t="s">
+        <v>454</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F83" s="87" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G83" s="87" t="s">
+        <v>2782</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="87" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B84" s="49" t="s">
         <v>2629</v>
       </c>
-      <c r="C75" s="87" t="s">
-        <v>819</v>
-      </c>
-      <c r="D75" s="172" t="s">
-        <v>819</v>
-      </c>
-      <c r="E75" s="87" t="s">
-        <v>864</v>
-      </c>
-      <c r="F75" s="87" t="s">
-        <v>864</v>
-      </c>
-      <c r="G75" s="86" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="87" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>2629</v>
-      </c>
-      <c r="C76" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" s="171" t="s">
-        <v>805</v>
-      </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="86" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="87" t="s">
-        <v>958</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C77" s="87" t="s">
-        <v>959</v>
-      </c>
-      <c r="D77" s="171" t="s">
-        <v>763</v>
-      </c>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="86" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
-        <v>985</v>
-      </c>
-      <c r="B78" s="49" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C78" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="171" t="s">
-        <v>806</v>
-      </c>
-      <c r="E78" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="F78" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="G78" s="86" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="87" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C79" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="171" t="s">
-        <v>798</v>
-      </c>
-      <c r="E79" s="87" t="s">
-        <v>799</v>
-      </c>
-      <c r="F79" s="87" t="s">
-        <v>799</v>
-      </c>
-      <c r="G79" s="86" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B80" s="49" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C80" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="171" t="s">
-        <v>2664</v>
-      </c>
-      <c r="E80" s="87" t="s">
-        <v>803</v>
-      </c>
-      <c r="F80" s="87" t="s">
-        <v>803</v>
-      </c>
-      <c r="G80" s="86" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="143" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B81" s="109" t="s">
-        <v>2632</v>
-      </c>
-      <c r="D81" s="168" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E81" s="143" t="s">
-        <v>2671</v>
-      </c>
-      <c r="G81" s="44"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="87" t="s">
-        <v>2677</v>
-      </c>
-      <c r="B82" s="165" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="168" t="s">
-        <v>2676</v>
-      </c>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="86"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="87" t="s">
-        <v>966</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C83" s="87" t="s">
-        <v>342</v>
-      </c>
-      <c r="D83" s="171" t="s">
-        <v>317</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>602</v>
-      </c>
-      <c r="F83" s="87" t="s">
-        <v>602</v>
-      </c>
-      <c r="G83" s="86" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="143" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B84" s="49" t="s">
-        <v>2634</v>
-      </c>
       <c r="C84" s="87" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D84" s="171" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="F84" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="G84" s="86" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D84" s="172" t="s">
+        <v>846</v>
+      </c>
+      <c r="E84" s="87"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="87" t="s">
+        <v>2783</v>
+      </c>
+      <c r="H84" s="86" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="87" t="s">
-        <v>1156</v>
+        <v>1027</v>
       </c>
       <c r="B85" s="49" t="s">
-        <v>2637</v>
+        <v>2622</v>
       </c>
       <c r="C85" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="D85" s="167" t="s">
-        <v>2655</v>
+        <v>150</v>
+      </c>
+      <c r="D85" s="171" t="s">
+        <v>2668</v>
       </c>
       <c r="E85" s="87" t="s">
-        <v>1559</v>
+        <v>549</v>
       </c>
       <c r="F85" s="87" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G85" s="86" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="G85" s="87" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H85" s="86" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="87" t="s">
-        <v>1628</v>
+        <v>1226</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>2637</v>
-      </c>
-      <c r="C86" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="171" t="s">
-        <v>2657</v>
-      </c>
-      <c r="E86" s="87" t="s">
-        <v>1802</v>
-      </c>
-      <c r="F86" s="87" t="s">
-        <v>1802</v>
-      </c>
-      <c r="G86" s="86" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2647</v>
+      </c>
+      <c r="C86" s="143" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D86" s="167" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E86" s="143" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F86" s="143" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G86" s="87" t="s">
+        <v>2785</v>
+      </c>
+      <c r="H86" s="86" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="87" t="s">
-        <v>1035</v>
+        <v>1648</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="C87" s="87" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D87" s="171" t="s">
-        <v>842</v>
+        <v>302</v>
       </c>
       <c r="E87" s="87"/>
       <c r="F87" s="87"/>
-      <c r="G87" s="86" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="87" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H87" s="86" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="87" t="s">
-        <v>987</v>
+        <v>1591</v>
       </c>
       <c r="B88" s="49" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C88" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="173" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="87" t="s">
+        <v>2787</v>
+      </c>
+      <c r="H88" s="86" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="87" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C89" s="87" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D89" s="172" t="s">
+        <v>818</v>
+      </c>
+      <c r="E89" s="87" t="s">
+        <v>863</v>
+      </c>
+      <c r="F89" s="87" t="s">
+        <v>863</v>
+      </c>
+      <c r="G89" s="87" t="s">
+        <v>2788</v>
+      </c>
+      <c r="H89" s="86" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C90" s="87" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D90" s="171" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E90" s="87" t="s">
+        <v>559</v>
+      </c>
+      <c r="F90" s="87" t="s">
+        <v>559</v>
+      </c>
+      <c r="G90" s="87" t="s">
+        <v>2789</v>
+      </c>
+      <c r="H90" s="86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B91" s="49" t="s">
         <v>2639</v>
       </c>
-      <c r="C88" s="87" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D88" s="171" t="s">
-        <v>769</v>
-      </c>
-      <c r="E88" s="87" t="s">
-        <v>774</v>
-      </c>
-      <c r="F88" s="87" t="s">
-        <v>774</v>
-      </c>
-      <c r="G88" s="86" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C89" s="87" t="s">
+      <c r="C91" s="87" t="s">
         <v>1874</v>
       </c>
-      <c r="D89" s="171" t="s">
+      <c r="D91" s="171" t="s">
         <v>2672</v>
       </c>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="86" t="s">
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H91" s="86" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="87" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C90" s="87" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D90" s="171" t="s">
-        <v>768</v>
-      </c>
-      <c r="E90" s="87" t="s">
-        <v>773</v>
-      </c>
-      <c r="F90" s="87" t="s">
-        <v>773</v>
-      </c>
-      <c r="G90" s="86" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="87" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C92" s="87" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D92" s="171" t="s">
+        <v>556</v>
+      </c>
+      <c r="E92" s="87" t="s">
+        <v>558</v>
+      </c>
+      <c r="F92" s="87" t="s">
+        <v>558</v>
+      </c>
+      <c r="G92" s="87" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H92" s="86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="87" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C93" s="87" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D93" s="170" t="s">
+        <v>838</v>
+      </c>
+      <c r="E93" s="87" t="s">
+        <v>867</v>
+      </c>
+      <c r="F93" s="87" t="s">
+        <v>867</v>
+      </c>
+      <c r="G93" s="87" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C94" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="171" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E94" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="F94" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="G94" s="87" t="s">
+        <v>2793</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C95" s="87" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D95" s="171" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E95" s="87" t="s">
+        <v>561</v>
+      </c>
+      <c r="F95" s="87" t="s">
+        <v>561</v>
+      </c>
+      <c r="G95" s="87" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H95" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="I95" s="143"/>
+    </row>
+    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="87" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C96" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" s="171" t="s">
+        <v>670</v>
+      </c>
+      <c r="E96" s="87" t="s">
+        <v>676</v>
+      </c>
+      <c r="F96" s="87" t="s">
+        <v>676</v>
+      </c>
+      <c r="G96" s="87" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H96" s="86" t="s">
+        <v>738</v>
+      </c>
+      <c r="I96" s="143"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="87" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B97" s="109" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C97" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" s="171" t="s">
+        <v>680</v>
+      </c>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="87" t="s">
+        <v>2796</v>
+      </c>
+      <c r="H97" s="86" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="87" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B98" s="109" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C98" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" s="171" t="s">
+        <v>684</v>
+      </c>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="87" t="s">
+        <v>2797</v>
+      </c>
+      <c r="H98" s="86" t="s">
+        <v>758</v>
+      </c>
+      <c r="I98" s="143"/>
+    </row>
+    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="87" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B99" s="109" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C99" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D99" s="171" t="s">
+        <v>682</v>
+      </c>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="87" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H99" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="I99" s="143"/>
+    </row>
+    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="87" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C100" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="D100" s="167" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E100" s="87" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F100" s="87" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G100" s="87" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H100" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="I100" s="143"/>
+    </row>
+    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="87" t="s">
         <v>1254</v>
       </c>
-      <c r="B91" s="165" t="s">
+      <c r="B101" s="165" t="s">
         <v>2641</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C101" s="87" t="s">
         <v>456</v>
       </c>
-      <c r="D91" s="171" t="s">
+      <c r="D101" s="171" t="s">
         <v>2687</v>
       </c>
-      <c r="E91" s="87" t="s">
+      <c r="E101" s="87" t="s">
         <v>1557</v>
       </c>
-      <c r="F91" s="87" t="s">
+      <c r="F101" s="87" t="s">
         <v>1557</v>
       </c>
-      <c r="G91" s="86" t="s">
+      <c r="G101" s="87" t="s">
+        <v>2800</v>
+      </c>
+      <c r="H101" s="86" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="87" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B92" s="165" t="s">
+      <c r="I101" s="143"/>
+    </row>
+    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="87" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B102" s="165" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C102" s="87" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" s="171" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E102" s="87" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F102" s="87" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G102" s="87" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H102" s="86" t="s">
+        <v>720</v>
+      </c>
+      <c r="I102" s="143"/>
+    </row>
+    <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="87" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B103" s="165" t="s">
         <v>2641</v>
       </c>
-      <c r="C92" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="171" t="s">
-        <v>2688</v>
-      </c>
-      <c r="E92" s="87" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F92" s="87" t="s">
-        <v>1798</v>
-      </c>
-      <c r="G92" s="86" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="87" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B93" s="165" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C93" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" s="171" t="s">
-        <v>2689</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F93" s="87" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G93" s="86" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="87" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B94" s="165" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C94" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="171" t="s">
-        <v>2679</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F94" s="87" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G94" s="86" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="87" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B95" s="165" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C95" s="87" t="s">
+      <c r="C103" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="D95" s="171" t="s">
+      <c r="D103" s="171" t="s">
         <v>2690</v>
       </c>
-      <c r="E95" s="87" t="s">
+      <c r="E103" s="87" t="s">
         <v>1799</v>
       </c>
-      <c r="F95" s="87" t="s">
+      <c r="F103" s="87" t="s">
         <v>1799</v>
       </c>
-      <c r="G95" s="86" t="s">
+      <c r="G103" s="87" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H103" s="86" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="87" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B96" s="165" t="s">
+      <c r="I103" s="143"/>
+    </row>
+    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="87" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B104" s="165" t="s">
         <v>2642</v>
       </c>
-      <c r="C96" s="87" t="s">
-        <v>457</v>
-      </c>
-      <c r="D96" s="171" t="s">
-        <v>2691</v>
-      </c>
-      <c r="E96" s="87" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F96" s="87" t="s">
-        <v>1558</v>
-      </c>
-      <c r="G96" s="86" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="87" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B97" s="165" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C97" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="171" t="s">
-        <v>2692</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>1794</v>
-      </c>
-      <c r="F97" s="87" t="s">
-        <v>1794</v>
-      </c>
-      <c r="G97" s="86" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="87" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B98" s="165" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C98" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="171" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E98" s="87" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F98" s="87" t="s">
-        <v>1796</v>
-      </c>
-      <c r="G98" s="86" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="87" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B99" s="165" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C99" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="171" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E99" s="87" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F99" s="87" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G99" s="86" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="87" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B100" s="165" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C100" s="87" t="s">
+      <c r="C104" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="171" t="s">
+      <c r="D104" s="171" t="s">
         <v>2694</v>
       </c>
-      <c r="E100" s="87" t="s">
+      <c r="E104" s="87" t="s">
         <v>1795</v>
       </c>
-      <c r="F100" s="87" t="s">
+      <c r="F104" s="87" t="s">
         <v>1795</v>
       </c>
-      <c r="G100" s="86" t="s">
+      <c r="G104" s="87" t="s">
+        <v>2803</v>
+      </c>
+      <c r="H104" s="86" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="87" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B101" s="165" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C101" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="171" t="s">
-        <v>433</v>
-      </c>
-      <c r="E101" s="87" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F101" s="87" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G101" s="86" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="87" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B102" s="165" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C102" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" s="171" t="s">
-        <v>453</v>
-      </c>
-      <c r="E102" s="87" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F102" s="87" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G102" s="86" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="87" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B103" s="165" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C103" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" s="171" t="s">
-        <v>454</v>
-      </c>
-      <c r="E103" s="87" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F103" s="87" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G103" s="86" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="87" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B104" s="165" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C104" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" s="171" t="s">
-        <v>2695</v>
-      </c>
-      <c r="E104" s="87" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F104" s="87" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G104" s="86" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="143"/>
+    </row>
+    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="87" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B105" s="165" t="s">
-        <v>2644</v>
+        <v>1593</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>2629</v>
       </c>
       <c r="C105" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" s="171" t="s">
-        <v>2696</v>
-      </c>
-      <c r="E105" s="87" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F105" s="87" t="s">
-        <v>1803</v>
-      </c>
-      <c r="G105" s="86" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D105" s="173" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H105" s="86" t="s">
+        <v>908</v>
+      </c>
+      <c r="I105" s="143"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="87" t="s">
-        <v>975</v>
-      </c>
-      <c r="B106" s="165" t="s">
-        <v>2645</v>
+        <v>1174</v>
+      </c>
+      <c r="B106" s="109" t="s">
+        <v>2623</v>
       </c>
       <c r="C106" s="87" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D106" s="171" t="s">
-        <v>2697</v>
-      </c>
-      <c r="E106" s="87" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F106" s="87" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G106" s="86" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H106" s="86" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="87" t="s">
-        <v>967</v>
-      </c>
-      <c r="B107" s="165" t="s">
-        <v>2645</v>
+        <v>1178</v>
+      </c>
+      <c r="B107" s="109" t="s">
+        <v>2623</v>
       </c>
       <c r="C107" s="87" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D107" s="171" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E107" s="87" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F107" s="87" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G107" s="86" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="87" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H107" s="86" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="87" t="s">
-        <v>969</v>
-      </c>
-      <c r="B108" s="165" t="s">
-        <v>2645</v>
+        <v>1176</v>
+      </c>
+      <c r="B108" s="109" t="s">
+        <v>2623</v>
       </c>
       <c r="C108" s="87" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D108" s="171" t="s">
-        <v>2699</v>
-      </c>
-      <c r="E108" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F108" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G108" s="86" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="143" t="s">
-        <v>1041</v>
+        <v>683</v>
+      </c>
+      <c r="E108" s="87"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="87" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H108" s="86" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="87" t="s">
+        <v>1049</v>
       </c>
       <c r="B109" s="49" t="s">
-        <v>1680</v>
+        <v>2629</v>
       </c>
       <c r="C109" s="87" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D109" s="171" t="s">
-        <v>1571</v>
+        <v>819</v>
+      </c>
+      <c r="D109" s="172" t="s">
+        <v>819</v>
       </c>
       <c r="E109" s="87" t="s">
-        <v>213</v>
+        <v>864</v>
       </c>
       <c r="F109" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="G109" s="86">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="G109" s="87" t="s">
+        <v>2808</v>
+      </c>
+      <c r="H109" s="86" t="s">
+        <v>907</v>
+      </c>
+      <c r="I109" s="143"/>
+    </row>
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="87" t="s">
-        <v>1019</v>
+        <v>1044</v>
       </c>
       <c r="B110" s="49" t="s">
-        <v>2647</v>
+        <v>2622</v>
       </c>
       <c r="C110" s="87" t="s">
-        <v>1868</v>
+        <v>185</v>
       </c>
       <c r="D110" s="171" t="s">
-        <v>771</v>
+        <v>2678</v>
       </c>
       <c r="E110" s="87" t="s">
-        <v>772</v>
+        <v>550</v>
       </c>
       <c r="F110" s="87" t="s">
-        <v>772</v>
-      </c>
-      <c r="G110" s="86" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="G110" s="87" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H110" s="86" t="s">
+        <v>693</v>
+      </c>
+      <c r="I110" s="143"/>
+    </row>
+    <row r="111" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="87" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>2647</v>
+        <v>2619</v>
       </c>
       <c r="C111" s="87" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D111" s="171" t="s">
-        <v>2658</v>
+        <v>1889</v>
+      </c>
+      <c r="D111" s="167" t="s">
+        <v>1233</v>
       </c>
       <c r="E111" s="87" t="s">
-        <v>868</v>
+        <v>564</v>
       </c>
       <c r="F111" s="87" t="s">
-        <v>868</v>
-      </c>
-      <c r="G111" s="86" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="G111" s="87" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H111" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="I111" s="143"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="87" t="s">
-        <v>1635</v>
+        <v>1682</v>
       </c>
       <c r="B112" s="49" t="s">
-        <v>2647</v>
+        <v>2629</v>
       </c>
       <c r="C112" s="87" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="D112" s="171" t="s">
-        <v>2663</v>
+        <v>805</v>
       </c>
       <c r="E112" s="87"/>
       <c r="F112" s="87"/>
-      <c r="G112" s="86" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="87" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H112" s="86" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="87" t="s">
-        <v>1004</v>
+        <v>1636</v>
       </c>
       <c r="B113" s="49" t="s">
-        <v>2647</v>
+        <v>2626</v>
       </c>
       <c r="C113" s="87" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D113" s="170" t="s">
-        <v>779</v>
-      </c>
-      <c r="E113" s="87" t="s">
-        <v>778</v>
-      </c>
-      <c r="F113" s="87" t="s">
-        <v>778</v>
-      </c>
-      <c r="G113" s="86" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="87" t="s">
-        <v>1226</v>
+        <v>190</v>
+      </c>
+      <c r="D113" s="171" t="s">
+        <v>675</v>
+      </c>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87" t="s">
+        <v>2812</v>
+      </c>
+      <c r="H113" s="86" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="143" t="s">
+        <v>1564</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C114" s="143" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D114" s="167" t="s">
-        <v>2673</v>
-      </c>
-      <c r="E114" s="143" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F114" s="143" t="s">
-        <v>1903</v>
-      </c>
-      <c r="G114" s="86" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="87" t="s">
-        <v>963</v>
-      </c>
-      <c r="B115" s="49" t="s">
-        <v>991</v>
-      </c>
-      <c r="C115" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="171" t="s">
-        <v>770</v>
-      </c>
-      <c r="E115" s="87" t="s">
-        <v>767</v>
-      </c>
-      <c r="F115" s="87" t="s">
-        <v>767</v>
-      </c>
-      <c r="G115" s="86" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2618</v>
+      </c>
+      <c r="C114" s="87"/>
+      <c r="D114" s="168" t="s">
+        <v>313</v>
+      </c>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="86"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="143" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B115" s="109" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D115" s="168" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E115" s="143" t="s">
+        <v>2671</v>
+      </c>
+      <c r="H115" s="44"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="87" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>991</v>
+        <v>2677</v>
+      </c>
+      <c r="B116" s="165" t="s">
+        <v>2632</v>
       </c>
       <c r="C116" s="87"/>
       <c r="D116" s="168" t="s">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="E116" s="87"/>
       <c r="F116" s="87"/>
-      <c r="G116" s="86"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="87"/>
+      <c r="H116" s="86"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="87" t="s">
-        <v>1011</v>
+        <v>2667</v>
       </c>
       <c r="B117" s="49" t="s">
         <v>991</v>
       </c>
-      <c r="C117" s="87" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D117" s="171" t="s">
-        <v>2674</v>
+      <c r="C117" s="87"/>
+      <c r="D117" s="168" t="s">
+        <v>2666</v>
       </c>
       <c r="E117" s="87"/>
       <c r="F117" s="87"/>
-      <c r="G117" s="86" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G118" s="44"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="87"/>
+      <c r="H117" s="86"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="44"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
       <c r="C119" s="13"/>
       <c r="D119" s="116"/>
-      <c r="G119" s="44"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="44"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="150" t="s">
         <v>1784</v>
       </c>
       <c r="B120" s="87"/>
       <c r="C120" s="13"/>
       <c r="D120" s="116"/>
-      <c r="G120" s="44"/>
-    </row>
-    <row r="121" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="44"/>
+    </row>
+    <row r="121" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="150" t="s">
         <v>1785</v>
       </c>
@@ -21476,7 +22218,7 @@
       </c>
       <c r="D121" s="116"/>
     </row>
-    <row r="122" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="150" t="s">
         <v>1787</v>
       </c>
@@ -21485,7 +22227,7 @@
       </c>
       <c r="D122" s="116"/>
     </row>
-    <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="150" t="s">
         <v>1788</v>
       </c>
@@ -21494,7 +22236,7 @@
       </c>
       <c r="D123" s="116"/>
     </row>
-    <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="150" t="s">
         <v>1790</v>
       </c>
@@ -21504,7 +22246,7 @@
       <c r="C124" s="82"/>
       <c r="D124" s="116"/>
     </row>
-    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="150" t="s">
         <v>1792</v>
       </c>
@@ -21514,7 +22256,7 @@
       <c r="C125" s="82"/>
       <c r="D125" s="116"/>
     </row>
-    <row r="126" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="150" t="s">
         <v>1792</v>
       </c>
@@ -21524,7 +22266,7 @@
       <c r="C126" s="82"/>
       <c r="D126" s="116"/>
     </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="150" t="s">
         <v>1806</v>
       </c>
@@ -21534,7 +22276,7 @@
       <c r="C127" s="82"/>
       <c r="D127" s="116"/>
     </row>
-    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="150" t="s">
         <v>1806</v>
       </c>
@@ -21544,12 +22286,12 @@
       <c r="C128" s="82"/>
       <c r="D128" s="116"/>
     </row>
-    <row r="129" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="149"/>
       <c r="C129" s="82"/>
       <c r="D129" s="116"/>
     </row>
-    <row r="130" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="149"/>
       <c r="B130" s="44" t="s">
         <v>1807</v>
@@ -21557,7 +22299,7 @@
       <c r="C130" s="82"/>
       <c r="D130" s="116"/>
     </row>
-    <row r="131" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="149"/>
       <c r="B131" s="87" t="s">
         <v>1811</v>
@@ -21565,13 +22307,13 @@
       <c r="C131" s="12"/>
       <c r="D131" s="116"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="149"/>
       <c r="C132" s="12"/>
       <c r="D132" s="116"/>
-      <c r="G132" s="44"/>
-    </row>
-    <row r="133" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="44"/>
+    </row>
+    <row r="133" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="143"/>
       <c r="B133" s="13" t="s">
         <v>1831</v>
@@ -21580,61 +22322,61 @@
       <c r="D133" s="116"/>
       <c r="E133" s="143"/>
     </row>
-    <row r="134" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="143"/>
       <c r="C134" s="41"/>
       <c r="D134" s="116"/>
       <c r="E134" s="143"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G135" s="44"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="44"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="83" t="s">
         <v>1911</v>
       </c>
-      <c r="G136" s="44"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="44"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="143" t="s">
         <v>2681</v>
       </c>
-      <c r="G137" s="44"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="44"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="143" t="s">
         <v>2682</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="12"/>
       <c r="D138" s="116"/>
-      <c r="G138" s="44"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="44"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="143" t="s">
         <v>2684</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="12"/>
       <c r="D139" s="116"/>
-      <c r="G139" s="44"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="44"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="12"/>
       <c r="D140" s="116"/>
-      <c r="G140" s="44"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="44"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="83" t="s">
         <v>2683</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="12"/>
       <c r="D141" s="116"/>
-      <c r="G141" s="44"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="44"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="87" t="s">
         <v>1617</v>
       </c>
@@ -21649,11 +22391,12 @@
       </c>
       <c r="E142" s="87"/>
       <c r="F142" s="87"/>
-      <c r="G142" s="86" t="s">
+      <c r="G142" s="87"/>
+      <c r="H142" s="86" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="87" t="s">
         <v>1616</v>
       </c>
@@ -21672,11 +22415,12 @@
       <c r="F143" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="G143" s="86" t="s">
+      <c r="G143" s="87"/>
+      <c r="H143" s="86" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="154" t="s">
         <v>1833</v>
       </c>
@@ -21691,11 +22435,12 @@
       </c>
       <c r="E144" s="87"/>
       <c r="F144" s="87"/>
-      <c r="G144" s="86" t="s">
+      <c r="G144" s="87"/>
+      <c r="H144" s="86" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="87" t="s">
         <v>1581</v>
       </c>
@@ -21714,11 +22459,12 @@
       <c r="F145" s="87" t="s">
         <v>845</v>
       </c>
-      <c r="G145" s="86" t="s">
+      <c r="G145" s="87"/>
+      <c r="H145" s="86" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="87" t="s">
         <v>1615</v>
       </c>
@@ -21737,11 +22483,12 @@
       <c r="F146" s="87" t="s">
         <v>1242</v>
       </c>
-      <c r="G146" s="86" t="s">
+      <c r="G146" s="87"/>
+      <c r="H146" s="86" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="82" t="s">
         <v>1013</v>
       </c>
@@ -21760,11 +22507,12 @@
       <c r="F147" s="87" t="s">
         <v>848</v>
       </c>
-      <c r="G147" s="86" t="s">
+      <c r="G147" s="87"/>
+      <c r="H147" s="86" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="87" t="s">
         <v>1574</v>
       </c>
@@ -21783,11 +22531,12 @@
       <c r="F148" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="G148" s="86" t="s">
+      <c r="G148" s="87"/>
+      <c r="H148" s="86" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="87" t="s">
         <v>1618</v>
       </c>
@@ -21806,11 +22555,12 @@
       <c r="F149" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="G149" s="86" t="s">
+      <c r="G149" s="87"/>
+      <c r="H149" s="86" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="87" t="s">
         <v>1634</v>
       </c>
@@ -21829,11 +22579,12 @@
       <c r="F150" s="87" t="s">
         <v>1243</v>
       </c>
-      <c r="G150" s="86" t="s">
+      <c r="G150" s="87"/>
+      <c r="H150" s="86" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="143" t="s">
         <v>1830</v>
       </c>
@@ -21848,11 +22599,12 @@
       </c>
       <c r="E151" s="87"/>
       <c r="F151" s="87"/>
-      <c r="G151" s="86" t="s">
+      <c r="G151" s="87"/>
+      <c r="H151" s="86" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="106" t="s">
         <v>984</v>
       </c>
@@ -21871,11 +22623,12 @@
       <c r="F152" s="106" t="s">
         <v>761</v>
       </c>
-      <c r="G152" s="163" t="s">
+      <c r="G152" s="106"/>
+      <c r="H152" s="163" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="87" t="s">
         <v>1637</v>
       </c>
@@ -21894,11 +22647,12 @@
       <c r="F153" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="G153" s="86" t="s">
+      <c r="G153" s="87"/>
+      <c r="H153" s="86" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="87" t="s">
         <v>1627</v>
       </c>
@@ -21917,39 +22671,40 @@
       <c r="F154" s="87" t="s">
         <v>1241</v>
       </c>
-      <c r="G154" s="86" t="s">
+      <c r="G154" s="87"/>
+      <c r="H154" s="86" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="13"/>
       <c r="C155" s="41"/>
       <c r="D155" s="116"/>
-      <c r="G155" s="44"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="44"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
       <c r="C156" s="41"/>
       <c r="D156" s="116"/>
-      <c r="G156" s="44"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="44"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="13"/>
       <c r="C157" s="41"/>
       <c r="D157" s="116"/>
-      <c r="G157" s="44"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="44"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="13"/>
       <c r="C158" s="41"/>
       <c r="D158" s="116"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
       <c r="C159" s="41"/>
       <c r="D159" s="116"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
       <c r="C160" s="41"/>
       <c r="D160" s="116"/>
@@ -22251,15 +23006,15 @@
       <c r="A235" s="44"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G138">
-    <sortCondition ref="B3:B138"/>
-    <sortCondition ref="D3:D138"/>
+  <sortState ref="A3:G117">
+    <sortCondition ref="C3:C117"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A144" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2" location="prism_id"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22267,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
@@ -11072,9 +11072,6 @@
     </r>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/eupath/icemr.owl#prism_id</t>
-  </si>
-  <si>
     <t>PRISM ID</t>
   </si>
   <si>
@@ -11409,6 +11406,9 @@
   </si>
   <si>
     <t>PRISM_0000111</t>
+  </si>
+  <si>
+    <t>eupath/icemr.owl#prism_id</t>
   </si>
 </sst>
 </file>
@@ -16359,7 +16359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19296,7 +19296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19333,7 +19333,7 @@
         <v>1817</v>
       </c>
       <c r="G1" s="164" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="H1" s="151" t="s">
         <v>511</v>
@@ -19355,7 +19355,7 @@
         <v>1820</v>
       </c>
       <c r="G2" s="174" t="s">
-        <v>2700</v>
+        <v>2812</v>
       </c>
       <c r="H2" s="151" t="s">
         <v>1815</v>
@@ -19381,7 +19381,7 @@
         <v>857</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="H3" s="86" t="s">
         <v>885</v>
@@ -19403,7 +19403,7 @@
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H4" s="86"/>
     </row>
@@ -19423,7 +19423,7 @@
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H5" s="86" t="s">
         <v>888</v>
@@ -19449,7 +19449,7 @@
         <v>673</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H6" s="86" t="s">
         <v>744</v>
@@ -19472,7 +19472,7 @@
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>872</v>
@@ -19498,7 +19498,7 @@
         <v>546</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>691</v>
@@ -19521,7 +19521,7 @@
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="H9" s="86" t="s">
         <v>747</v>
@@ -19548,7 +19548,7 @@
         <v>858</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>887</v>
@@ -19575,7 +19575,7 @@
         <v>773</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>912</v>
@@ -19597,7 +19597,7 @@
       <c r="E12" s="87"/>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="H12" s="86" t="s">
         <v>886</v>
@@ -19624,7 +19624,7 @@
         <v>1555</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="H13" s="86" t="s">
         <v>731</v>
@@ -19651,7 +19651,7 @@
         <v>1554</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="H14" s="86" t="s">
         <v>730</v>
@@ -19674,7 +19674,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="H15" s="86" t="s">
         <v>793</v>
@@ -19697,7 +19697,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>757</v>
@@ -19723,7 +19723,7 @@
         <v>1556</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H17" s="86" t="s">
         <v>732</v>
@@ -19750,7 +19750,7 @@
         <v>602</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="H18" s="86" t="s">
         <v>488</v>
@@ -19777,7 +19777,7 @@
         <v>868</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H19" s="86" t="s">
         <v>922</v>
@@ -19800,7 +19800,7 @@
       <c r="E20" s="87"/>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="H20" s="86" t="s">
         <v>890</v>
@@ -19823,7 +19823,7 @@
       <c r="E21" s="87"/>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="H21" s="86" t="s">
         <v>914</v>
@@ -19850,7 +19850,7 @@
         <v>774</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>913</v>
@@ -19872,7 +19872,7 @@
       <c r="E23" s="87"/>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>889</v>
@@ -19895,7 +19895,7 @@
       <c r="E24" s="87"/>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="143"/>
@@ -19916,7 +19916,7 @@
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
       <c r="G25" s="87" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="H25" s="86"/>
       <c r="I25" s="143"/>
@@ -19941,7 +19941,7 @@
         <v>799</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H26" s="86" t="s">
         <v>879</v>
@@ -19964,7 +19964,7 @@
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
       <c r="G27" s="87" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>892</v>
@@ -19991,7 +19991,7 @@
         <v>767</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="H28" s="86" t="s">
         <v>917</v>
@@ -20018,7 +20018,7 @@
         <v>859</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="H29" s="86" t="s">
         <v>891</v>
@@ -20045,7 +20045,7 @@
         <v>1263</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="H30" s="86" t="s">
         <v>736</v>
@@ -20072,7 +20072,7 @@
         <v>213</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="H31" s="86">
         <v>1.1000000000000001</v>
@@ -20095,7 +20095,7 @@
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
       <c r="G32" s="87" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="H32" s="86" t="s">
         <v>902</v>
@@ -20118,7 +20118,7 @@
       <c r="E33" s="87"/>
       <c r="F33" s="87"/>
       <c r="G33" s="87" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="H33" s="86" t="s">
         <v>918</v>
@@ -20144,7 +20144,7 @@
         <v>547</v>
       </c>
       <c r="G34" s="87" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="H34" s="86" t="s">
         <v>690</v>
@@ -20171,7 +20171,7 @@
         <v>669</v>
       </c>
       <c r="G35" s="87" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="H35" s="86" t="s">
         <v>739</v>
@@ -20198,7 +20198,7 @@
         <v>861</v>
       </c>
       <c r="G36" s="87" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="H36" s="86" t="s">
         <v>897</v>
@@ -20221,7 +20221,7 @@
       <c r="E37" s="87"/>
       <c r="F37" s="87"/>
       <c r="G37" s="87" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="H37" s="86" t="s">
         <v>896</v>
@@ -20248,7 +20248,7 @@
         <v>765</v>
       </c>
       <c r="G38" s="87" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="H38" s="86" t="s">
         <v>884</v>
@@ -20275,7 +20275,7 @@
         <v>1798</v>
       </c>
       <c r="G39" s="87" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="H39" s="86" t="s">
         <v>726</v>
@@ -20302,7 +20302,7 @@
         <v>1794</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="H40" s="86" t="s">
         <v>721</v>
@@ -20329,7 +20329,7 @@
         <v>1802</v>
       </c>
       <c r="G41" s="87" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="H41" s="86" t="s">
         <v>490</v>
@@ -20355,7 +20355,7 @@
         <v>856</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="H42" s="86" t="s">
         <v>895</v>
@@ -20382,7 +20382,7 @@
         <v>553</v>
       </c>
       <c r="G43" s="87" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="H43" s="86" t="s">
         <v>694</v>
@@ -20405,7 +20405,7 @@
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
       <c r="G44" s="87" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="H44" s="86" t="s">
         <v>898</v>
@@ -20432,7 +20432,7 @@
         <v>554</v>
       </c>
       <c r="G45" s="87" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="H45" s="86" t="s">
         <v>695</v>
@@ -20459,7 +20459,7 @@
         <v>1801</v>
       </c>
       <c r="G46" s="87" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="H46" s="86" t="s">
         <v>729</v>
@@ -20486,7 +20486,7 @@
         <v>1797</v>
       </c>
       <c r="G47" s="87" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="H47" s="86" t="s">
         <v>724</v>
@@ -20509,7 +20509,7 @@
       <c r="E48" s="87"/>
       <c r="F48" s="87"/>
       <c r="G48" s="87" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="H48" s="86" t="s">
         <v>748</v>
@@ -20532,7 +20532,7 @@
       <c r="E49" s="87"/>
       <c r="F49" s="87"/>
       <c r="G49" s="87" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="H49" s="86" t="s">
         <v>924</v>
@@ -20555,7 +20555,7 @@
       <c r="E50" s="87"/>
       <c r="F50" s="87"/>
       <c r="G50" s="87" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="H50" s="86" t="s">
         <v>746</v>
@@ -20582,7 +20582,7 @@
         <v>1800</v>
       </c>
       <c r="G51" s="87" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="H51" s="86" t="s">
         <v>728</v>
@@ -20608,7 +20608,7 @@
         <v>1796</v>
       </c>
       <c r="G52" s="87" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="H52" s="86" t="s">
         <v>723</v>
@@ -20630,7 +20630,7 @@
       <c r="E53" s="87"/>
       <c r="F53" s="87"/>
       <c r="G53" s="87" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="H53" s="86" t="s">
         <v>749</v>
@@ -20653,7 +20653,7 @@
       <c r="E54" s="87"/>
       <c r="F54" s="87"/>
       <c r="G54" s="87" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="H54" s="86" t="s">
         <v>900</v>
@@ -20680,7 +20680,7 @@
         <v>862</v>
       </c>
       <c r="G55" s="87" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H55" s="86" t="s">
         <v>899</v>
@@ -20703,7 +20703,7 @@
       <c r="E56" s="87"/>
       <c r="F56" s="87"/>
       <c r="G56" s="87" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="H56" s="86" t="s">
         <v>873</v>
@@ -20729,7 +20729,7 @@
         <v>778</v>
       </c>
       <c r="G57" s="87" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="H57" s="86" t="s">
         <v>920</v>
@@ -20751,7 +20751,7 @@
       <c r="E58" s="87"/>
       <c r="F58" s="87"/>
       <c r="G58" s="87" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="H58" s="86" t="s">
         <v>741</v>
@@ -20777,7 +20777,7 @@
         <v>571</v>
       </c>
       <c r="G59" s="87" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="H59" s="86" t="s">
         <v>698</v>
@@ -20803,7 +20803,7 @@
         <v>573</v>
       </c>
       <c r="G60" s="87" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="H60" s="86" t="s">
         <v>700</v>
@@ -20829,7 +20829,7 @@
         <v>572</v>
       </c>
       <c r="G61" s="87" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="H61" s="86" t="s">
         <v>699</v>
@@ -20855,7 +20855,7 @@
         <v>541</v>
       </c>
       <c r="G62" s="87" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="H62" s="86" t="s">
         <v>687</v>
@@ -20881,7 +20881,7 @@
         <v>542</v>
       </c>
       <c r="G63" s="87" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="H63" s="86" t="s">
         <v>688</v>
@@ -20907,7 +20907,7 @@
         <v>543</v>
       </c>
       <c r="G64" s="87" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="H64" s="86" t="s">
         <v>689</v>
@@ -20933,7 +20933,7 @@
         <v>803</v>
       </c>
       <c r="G65" s="87" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="H65" s="86" t="s">
         <v>877</v>
@@ -20959,7 +20959,7 @@
         <v>860</v>
       </c>
       <c r="G66" s="87" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="H66" s="86" t="s">
         <v>893</v>
@@ -20981,7 +20981,7 @@
       <c r="E67" s="87"/>
       <c r="F67" s="87"/>
       <c r="G67" s="87" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="H67" s="86" t="s">
         <v>894</v>
@@ -21003,7 +21003,7 @@
       <c r="E68" s="87"/>
       <c r="F68" s="87"/>
       <c r="G68" s="87" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="H68" s="86" t="s">
         <v>901</v>
@@ -21029,7 +21029,7 @@
         <v>672</v>
       </c>
       <c r="G69" s="87" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="H69" s="86" t="s">
         <v>740</v>
@@ -21051,7 +21051,7 @@
       <c r="E70" s="87"/>
       <c r="F70" s="87"/>
       <c r="G70" s="87" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="H70" s="86" t="s">
         <v>916</v>
@@ -21077,7 +21077,7 @@
         <v>849</v>
       </c>
       <c r="G71" s="87" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="H71" s="86" t="s">
         <v>927</v>
@@ -21099,7 +21099,7 @@
       <c r="E72" s="87"/>
       <c r="F72" s="87"/>
       <c r="G72" s="87" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H72" s="86" t="s">
         <v>904</v>
@@ -21125,7 +21125,7 @@
         <v>291</v>
       </c>
       <c r="G73" s="87" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="H73" s="86" t="s">
         <v>870</v>
@@ -21147,7 +21147,7 @@
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
       <c r="G74" s="87" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="H74" s="86" t="s">
         <v>903</v>
@@ -21173,7 +21173,7 @@
         <v>850</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="H75" s="86" t="s">
         <v>928</v>
@@ -21199,7 +21199,7 @@
         <v>1265</v>
       </c>
       <c r="G76" s="87" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="H76" s="86" t="s">
         <v>737</v>
@@ -21225,7 +21225,7 @@
         <v>316</v>
       </c>
       <c r="G77" s="87" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="H77" s="86" t="s">
         <v>487</v>
@@ -21251,7 +21251,7 @@
         <v>570</v>
       </c>
       <c r="G78" s="87" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="H78" s="86" t="s">
         <v>697</v>
@@ -21277,7 +21277,7 @@
         <v>1804</v>
       </c>
       <c r="G79" s="87" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="H79" s="86" t="s">
         <v>734</v>
@@ -21303,7 +21303,7 @@
         <v>1803</v>
       </c>
       <c r="G80" s="87" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="H80" s="86" t="s">
         <v>733</v>
@@ -21329,7 +21329,7 @@
         <v>537</v>
       </c>
       <c r="G81" s="87" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H81" s="86" t="s">
         <v>686</v>
@@ -21355,7 +21355,7 @@
         <v>772</v>
       </c>
       <c r="G82" s="87" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="H82" s="86" t="s">
         <v>923</v>
@@ -21381,7 +21381,7 @@
         <v>1264</v>
       </c>
       <c r="G83" s="87" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="H83" s="86" t="s">
         <v>735</v>
@@ -21403,7 +21403,7 @@
       <c r="E84" s="87"/>
       <c r="F84" s="87"/>
       <c r="G84" s="87" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="H84" s="86" t="s">
         <v>909</v>
@@ -21429,7 +21429,7 @@
         <v>549</v>
       </c>
       <c r="G85" s="87" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="H85" s="86" t="s">
         <v>692</v>
@@ -21455,7 +21455,7 @@
         <v>1903</v>
       </c>
       <c r="G86" s="87" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="H86" s="86" t="s">
         <v>925</v>
@@ -21477,7 +21477,7 @@
       <c r="E87" s="87"/>
       <c r="F87" s="87"/>
       <c r="G87" s="87" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="H87" s="86" t="s">
         <v>742</v>
@@ -21499,7 +21499,7 @@
       <c r="E88" s="87"/>
       <c r="F88" s="87"/>
       <c r="G88" s="87" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="H88" s="86" t="s">
         <v>906</v>
@@ -21525,7 +21525,7 @@
         <v>863</v>
       </c>
       <c r="G89" s="87" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="H89" s="86" t="s">
         <v>905</v>
@@ -21551,7 +21551,7 @@
         <v>559</v>
       </c>
       <c r="G90" s="87" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="H90" s="86" t="s">
         <v>696</v>
@@ -21573,7 +21573,7 @@
       <c r="E91" s="87"/>
       <c r="F91" s="87"/>
       <c r="G91" s="87" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="H91" s="86" t="s">
         <v>915</v>
@@ -21599,7 +21599,7 @@
         <v>558</v>
       </c>
       <c r="G92" s="87" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="H92" s="86" t="s">
         <v>482</v>
@@ -21625,7 +21625,7 @@
         <v>867</v>
       </c>
       <c r="G93" s="87" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>919</v>
@@ -21651,7 +21651,7 @@
         <v>565</v>
       </c>
       <c r="G94" s="87" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>499</v>
@@ -21677,7 +21677,7 @@
         <v>561</v>
       </c>
       <c r="G95" s="87" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H95" s="86" t="s">
         <v>491</v>
@@ -21704,7 +21704,7 @@
         <v>676</v>
       </c>
       <c r="G96" s="87" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="H96" s="86" t="s">
         <v>738</v>
@@ -21727,7 +21727,7 @@
       <c r="E97" s="87"/>
       <c r="F97" s="87"/>
       <c r="G97" s="87" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="H97" s="86" t="s">
         <v>753</v>
@@ -21749,7 +21749,7 @@
       <c r="E98" s="87"/>
       <c r="F98" s="87"/>
       <c r="G98" s="87" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="H98" s="86" t="s">
         <v>758</v>
@@ -21772,7 +21772,7 @@
       <c r="E99" s="87"/>
       <c r="F99" s="87"/>
       <c r="G99" s="87" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="H99" s="86" t="s">
         <v>755</v>
@@ -21799,7 +21799,7 @@
         <v>1559</v>
       </c>
       <c r="G100" s="87" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="H100" s="86" t="s">
         <v>489</v>
@@ -21826,7 +21826,7 @@
         <v>1557</v>
       </c>
       <c r="G101" s="87" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="H101" s="86" t="s">
         <v>725</v>
@@ -21853,7 +21853,7 @@
         <v>1558</v>
       </c>
       <c r="G102" s="87" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="H102" s="86" t="s">
         <v>720</v>
@@ -21880,7 +21880,7 @@
         <v>1799</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="H103" s="86" t="s">
         <v>727</v>
@@ -21907,7 +21907,7 @@
         <v>1795</v>
       </c>
       <c r="G104" s="87" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="H104" s="86" t="s">
         <v>722</v>
@@ -21930,7 +21930,7 @@
       <c r="E105" s="87"/>
       <c r="F105" s="87"/>
       <c r="G105" s="87" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="H105" s="86" t="s">
         <v>908</v>
@@ -21953,7 +21953,7 @@
       <c r="E106" s="87"/>
       <c r="F106" s="87"/>
       <c r="G106" s="87" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="H106" s="86" t="s">
         <v>754</v>
@@ -21975,7 +21975,7 @@
       <c r="E107" s="87"/>
       <c r="F107" s="87"/>
       <c r="G107" s="87" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="H107" s="86" t="s">
         <v>792</v>
@@ -21997,7 +21997,7 @@
       <c r="E108" s="87"/>
       <c r="F108" s="87"/>
       <c r="G108" s="87" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="H108" s="86" t="s">
         <v>756</v>
@@ -22023,7 +22023,7 @@
         <v>864</v>
       </c>
       <c r="G109" s="87" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H109" s="86" t="s">
         <v>907</v>
@@ -22050,7 +22050,7 @@
         <v>550</v>
       </c>
       <c r="G110" s="87" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="H110" s="86" t="s">
         <v>693</v>
@@ -22077,7 +22077,7 @@
         <v>564</v>
       </c>
       <c r="G111" s="87" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="H111" s="86" t="s">
         <v>498</v>
@@ -22100,7 +22100,7 @@
       <c r="E112" s="87"/>
       <c r="F112" s="87"/>
       <c r="G112" s="87" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="H112" s="86" t="s">
         <v>874</v>
@@ -22122,7 +22122,7 @@
       <c r="E113" s="87"/>
       <c r="F113" s="87"/>
       <c r="G113" s="87" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="H113" s="86" t="s">
         <v>743</v>
@@ -23011,7 +23011,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A144" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" location="prism_id"/>
+    <hyperlink ref="G2" r:id="rId2" location="prism_id" display="http://purl.obolibrary.org/obo/eupath/icemr.owl#prism_id"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/prism/PRISM_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12000" windowHeight="10155" tabRatio="878" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12000" windowHeight="10155" tabRatio="878" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM category" sheetId="24" r:id="rId1"/>
@@ -8273,9 +8273,6 @@
     <t>http://purl.obolibrary.org/obo/TEMP_00001</t>
   </si>
   <si>
-    <t>icemr.owll#hasRelatedSynonym</t>
-  </si>
-  <si>
     <t>Related Synonym</t>
   </si>
   <si>
@@ -11408,7 +11405,10 @@
     <t>PRISM_0000111</t>
   </si>
   <si>
-    <t>eupath/icemr.owl#prism_id</t>
+    <t>eupath/icemr/prism.owl#prism_id</t>
+  </si>
+  <si>
+    <t>eupath/icemr/prism.owll#hasRelatedSynonym</t>
   </si>
 </sst>
 </file>
@@ -14002,7 +14002,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -14253,9 +14253,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1822" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1825">
     <cellStyle name="20% - Accent1" xfId="1799" builtinId="30" customBuiltin="1"/>
@@ -16359,7 +16356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16395,7 +16392,7 @@
       <c r="A2" s="151"/>
       <c r="B2" s="151"/>
       <c r="C2" s="151" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16403,7 +16400,7 @@
         <v>1013</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C3" t="s">
         <v>788</v>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B4" s="143"/>
       <c r="C4" t="s">
@@ -16420,7 +16417,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B5" s="143"/>
       <c r="C5" t="s">
@@ -16429,21 +16426,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C6" t="s">
         <v>2619</v>
-      </c>
-      <c r="B6" s="143" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C7" t="s">
         <v>223</v>
@@ -16451,10 +16448,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C8" t="s">
         <v>519</v>
@@ -16462,10 +16459,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C9" t="s">
         <v>520</v>
@@ -16473,21 +16470,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B10" s="143" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C10" t="s">
         <v>2623</v>
-      </c>
-      <c r="B10" s="143" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B11" s="143" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C11" t="s">
         <v>524</v>
@@ -16495,10 +16492,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B12" s="143" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C12" t="s">
         <v>1480</v>
@@ -16506,32 +16503,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B13" s="143" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C13" t="s">
         <v>2627</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C14" t="s">
         <v>2629</v>
-      </c>
-      <c r="B14" s="143" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B15" s="143" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C15" t="s">
         <v>786</v>
@@ -16539,54 +16536,54 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C16" t="s">
         <v>2632</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2633</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B17" s="143" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C17" t="s">
         <v>2634</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B18" s="143" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C18" t="s">
         <v>2637</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B19" s="143" t="s">
         <v>991</v>
       </c>
       <c r="C19" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B20" s="143" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C20" t="s">
         <v>314</v>
@@ -16594,10 +16591,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B21" s="143" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C21" t="s">
         <v>315</v>
@@ -16605,10 +16602,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B22" s="143" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C22" t="s">
         <v>523</v>
@@ -16616,10 +16613,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B23" s="143" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C23" t="s">
         <v>522</v>
@@ -16627,18 +16624,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C24" t="s">
         <v>2645</v>
-      </c>
-      <c r="B24" s="143" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2646</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B25" s="143"/>
       <c r="C25" t="s">
@@ -16647,7 +16644,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B26" s="143"/>
       <c r="C26" t="s">
@@ -16656,13 +16653,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B27" s="143" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C27" t="s">
         <v>2647</v>
-      </c>
-      <c r="B27" s="143" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -16670,7 +16667,7 @@
         <v>1680</v>
       </c>
       <c r="B28" s="143" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="C28" t="s">
         <v>1506</v>
@@ -16681,7 +16678,7 @@
         <v>991</v>
       </c>
       <c r="B29" s="143" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C29" t="s">
         <v>465</v>
@@ -19294,7 +19291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -19321,7 +19318,7 @@
         <v>1727</v>
       </c>
       <c r="C1" s="151" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D1" s="169" t="s">
         <v>1818</v>
@@ -19333,7 +19330,7 @@
         <v>1817</v>
       </c>
       <c r="G1" s="164" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="H1" s="151" t="s">
         <v>511</v>
@@ -19343,19 +19340,19 @@
       <c r="A2" s="151"/>
       <c r="B2" s="151"/>
       <c r="C2" s="164" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E2" s="164" t="s">
         <v>2685</v>
-      </c>
-      <c r="D2" s="169" t="s">
-        <v>2649</v>
-      </c>
-      <c r="E2" s="164" t="s">
-        <v>2686</v>
       </c>
       <c r="F2" s="151" t="s">
         <v>1820</v>
       </c>
-      <c r="G2" s="174" t="s">
-        <v>2812</v>
+      <c r="G2" s="143" t="s">
+        <v>2811</v>
       </c>
       <c r="H2" s="151" t="s">
         <v>1815</v>
@@ -19366,10 +19363,10 @@
         <v>1050</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D3" s="171" t="s">
         <v>808</v>
@@ -19381,7 +19378,7 @@
         <v>857</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="H3" s="86" t="s">
         <v>885</v>
@@ -19389,21 +19386,21 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D4" s="171" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="H4" s="86"/>
     </row>
@@ -19412,7 +19409,7 @@
         <v>1583</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>2</v>
@@ -19423,7 +19420,7 @@
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H5" s="86" t="s">
         <v>888</v>
@@ -19434,7 +19431,7 @@
         <v>1015</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C6" s="87" t="s">
         <v>957</v>
@@ -19449,7 +19446,7 @@
         <v>673</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H6" s="86" t="s">
         <v>744</v>
@@ -19461,7 +19458,7 @@
         <v>958</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C7" s="87" t="s">
         <v>959</v>
@@ -19472,7 +19469,7 @@
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>872</v>
@@ -19483,7 +19480,7 @@
         <v>960</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>8</v>
@@ -19498,7 +19495,7 @@
         <v>546</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>691</v>
@@ -19510,10 +19507,10 @@
         <v>965</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D9" s="171" t="s">
         <v>460</v>
@@ -19521,7 +19518,7 @@
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H9" s="86" t="s">
         <v>747</v>
@@ -19533,7 +19530,7 @@
         <v>1189</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>809</v>
@@ -19548,7 +19545,7 @@
         <v>858</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>887</v>
@@ -19560,10 +19557,10 @@
         <v>1043</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D11" s="171" t="s">
         <v>768</v>
@@ -19575,7 +19572,7 @@
         <v>773</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>912</v>
@@ -19586,7 +19583,7 @@
         <v>1582</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C12" s="87" t="s">
         <v>14</v>
@@ -19597,7 +19594,7 @@
       <c r="E12" s="87"/>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="H12" s="86" t="s">
         <v>886</v>
@@ -19609,13 +19606,13 @@
         <v>967</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>339</v>
       </c>
       <c r="D13" s="171" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E13" s="87" t="s">
         <v>1555</v>
@@ -19624,7 +19621,7 @@
         <v>1555</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="H13" s="86" t="s">
         <v>731</v>
@@ -19636,13 +19633,13 @@
         <v>969</v>
       </c>
       <c r="B14" s="165" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>340</v>
       </c>
       <c r="D14" s="171" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="E14" s="87" t="s">
         <v>1554</v>
@@ -19651,7 +19648,7 @@
         <v>1554</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="H14" s="86" t="s">
         <v>730</v>
@@ -19663,7 +19660,7 @@
         <v>971</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>329</v>
@@ -19674,7 +19671,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="H15" s="86" t="s">
         <v>793</v>
@@ -19686,7 +19683,7 @@
         <v>973</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C16" s="87" t="s">
         <v>330</v>
@@ -19697,7 +19694,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>757</v>
@@ -19708,13 +19705,13 @@
         <v>975</v>
       </c>
       <c r="B17" s="165" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C17" s="87" t="s">
         <v>341</v>
       </c>
       <c r="D17" s="171" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E17" s="87" t="s">
         <v>1556</v>
@@ -19723,7 +19720,7 @@
         <v>1556</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H17" s="86" t="s">
         <v>732</v>
@@ -19735,7 +19732,7 @@
         <v>966</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>342</v>
@@ -19750,7 +19747,7 @@
         <v>602</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H18" s="86" t="s">
         <v>488</v>
@@ -19762,13 +19759,13 @@
         <v>976</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D19" s="171" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="E19" s="87" t="s">
         <v>868</v>
@@ -19777,7 +19774,7 @@
         <v>868</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="H19" s="86" t="s">
         <v>922</v>
@@ -19789,7 +19786,7 @@
         <v>1584</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>25</v>
@@ -19800,7 +19797,7 @@
       <c r="E20" s="87"/>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H20" s="86" t="s">
         <v>890</v>
@@ -19812,7 +19809,7 @@
         <v>1035</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>28</v>
@@ -19823,7 +19820,7 @@
       <c r="E21" s="87"/>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="H21" s="86" t="s">
         <v>914</v>
@@ -19835,10 +19832,10 @@
         <v>987</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D22" s="171" t="s">
         <v>769</v>
@@ -19850,7 +19847,7 @@
         <v>774</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>913</v>
@@ -19861,7 +19858,7 @@
         <v>1200</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C23" s="87" t="s">
         <v>810</v>
@@ -19872,7 +19869,7 @@
       <c r="E23" s="87"/>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>889</v>
@@ -19881,42 +19878,42 @@
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C24" s="87" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D24" s="171" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="143"/>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
       <c r="G25" s="87" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="H25" s="86"/>
       <c r="I25" s="143"/>
@@ -19926,7 +19923,7 @@
         <v>1619</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C26" s="87" t="s">
         <v>36</v>
@@ -19941,7 +19938,7 @@
         <v>799</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="H26" s="86" t="s">
         <v>879</v>
@@ -19953,7 +19950,7 @@
         <v>1585</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C27" s="87" t="s">
         <v>37</v>
@@ -19964,7 +19961,7 @@
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
       <c r="G27" s="87" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>892</v>
@@ -19991,7 +19988,7 @@
         <v>767</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="H28" s="86" t="s">
         <v>917</v>
@@ -20003,7 +20000,7 @@
         <v>1046</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C29" s="87" t="s">
         <v>811</v>
@@ -20018,7 +20015,7 @@
         <v>859</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="H29" s="86" t="s">
         <v>891</v>
@@ -20030,7 +20027,7 @@
         <v>1622</v>
       </c>
       <c r="B30" s="165" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C30" s="87" t="s">
         <v>43</v>
@@ -20045,7 +20042,7 @@
         <v>1263</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="H30" s="86" t="s">
         <v>736</v>
@@ -20060,7 +20057,7 @@
         <v>1680</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D31" s="171" t="s">
         <v>1571</v>
@@ -20072,7 +20069,7 @@
         <v>213</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="H31" s="86">
         <v>1.1000000000000001</v>
@@ -20084,7 +20081,7 @@
         <v>1589</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>46</v>
@@ -20095,7 +20092,7 @@
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
       <c r="G32" s="87" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="H32" s="86" t="s">
         <v>902</v>
@@ -20104,10 +20101,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>53</v>
@@ -20118,7 +20115,7 @@
       <c r="E33" s="87"/>
       <c r="F33" s="87"/>
       <c r="G33" s="87" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="H33" s="86" t="s">
         <v>918</v>
@@ -20129,7 +20126,7 @@
         <v>994</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C34" s="87" t="s">
         <v>55</v>
@@ -20144,7 +20141,7 @@
         <v>547</v>
       </c>
       <c r="G34" s="87" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="H34" s="86" t="s">
         <v>690</v>
@@ -20156,7 +20153,7 @@
         <v>1579</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C35" s="87" t="s">
         <v>59</v>
@@ -20171,7 +20168,7 @@
         <v>669</v>
       </c>
       <c r="G35" s="87" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="H35" s="86" t="s">
         <v>739</v>
@@ -20183,7 +20180,7 @@
         <v>1201</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C36" s="87" t="s">
         <v>814</v>
@@ -20198,7 +20195,7 @@
         <v>861</v>
       </c>
       <c r="G36" s="87" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="H36" s="86" t="s">
         <v>897</v>
@@ -20210,7 +20207,7 @@
         <v>1592</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C37" s="87" t="s">
         <v>61</v>
@@ -20221,7 +20218,7 @@
       <c r="E37" s="87"/>
       <c r="F37" s="87"/>
       <c r="G37" s="87" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="H37" s="86" t="s">
         <v>896</v>
@@ -20233,13 +20230,13 @@
         <v>995</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C38" s="87" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="171" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>765</v>
@@ -20248,7 +20245,7 @@
         <v>765</v>
       </c>
       <c r="G38" s="87" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="H38" s="86" t="s">
         <v>884</v>
@@ -20260,13 +20257,13 @@
         <v>1620</v>
       </c>
       <c r="B39" s="165" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C39" s="87" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="171" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="E39" s="87" t="s">
         <v>1798</v>
@@ -20275,7 +20272,7 @@
         <v>1798</v>
       </c>
       <c r="G39" s="87" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="H39" s="86" t="s">
         <v>726</v>
@@ -20287,13 +20284,13 @@
         <v>1621</v>
       </c>
       <c r="B40" s="165" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="171" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="E40" s="87" t="s">
         <v>1794</v>
@@ -20302,7 +20299,7 @@
         <v>1794</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="H40" s="86" t="s">
         <v>721</v>
@@ -20314,13 +20311,13 @@
         <v>1628</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C41" s="87" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="171" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="E41" s="87" t="s">
         <v>1802</v>
@@ -20329,7 +20326,7 @@
         <v>1802</v>
       </c>
       <c r="G41" s="87" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="H41" s="86" t="s">
         <v>490</v>
@@ -20340,10 +20337,10 @@
         <v>996</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D42" s="172" t="s">
         <v>813</v>
@@ -20355,7 +20352,7 @@
         <v>856</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="H42" s="86" t="s">
         <v>895</v>
@@ -20367,13 +20364,13 @@
         <v>1000</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C43" s="87" t="s">
         <v>234</v>
       </c>
       <c r="D43" s="171" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="E43" s="87" t="s">
         <v>553</v>
@@ -20382,7 +20379,7 @@
         <v>553</v>
       </c>
       <c r="G43" s="87" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="H43" s="86" t="s">
         <v>694</v>
@@ -20394,7 +20391,7 @@
         <v>1586</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C44" s="87" t="s">
         <v>68</v>
@@ -20405,7 +20402,7 @@
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
       <c r="G44" s="87" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="H44" s="86" t="s">
         <v>898</v>
@@ -20417,13 +20414,13 @@
         <v>990</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D45" s="171" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="E45" s="87" t="s">
         <v>554</v>
@@ -20432,7 +20429,7 @@
         <v>554</v>
       </c>
       <c r="G45" s="87" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="H45" s="86" t="s">
         <v>695</v>
@@ -20444,13 +20441,13 @@
         <v>1630</v>
       </c>
       <c r="B46" s="165" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C46" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="171" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="E46" s="87" t="s">
         <v>1801</v>
@@ -20459,7 +20456,7 @@
         <v>1801</v>
       </c>
       <c r="G46" s="87" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="H46" s="86" t="s">
         <v>729</v>
@@ -20471,13 +20468,13 @@
         <v>1631</v>
       </c>
       <c r="B47" s="165" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C47" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="171" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="E47" s="87" t="s">
         <v>1797</v>
@@ -20486,7 +20483,7 @@
         <v>1797</v>
       </c>
       <c r="G47" s="87" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="H47" s="86" t="s">
         <v>724</v>
@@ -20498,10 +20495,10 @@
         <v>1003</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D48" s="171" t="s">
         <v>375</v>
@@ -20509,7 +20506,7 @@
       <c r="E48" s="87"/>
       <c r="F48" s="87"/>
       <c r="G48" s="87" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="H48" s="86" t="s">
         <v>748</v>
@@ -20521,18 +20518,18 @@
         <v>1635</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C49" s="87" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="171" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="E49" s="87"/>
       <c r="F49" s="87"/>
       <c r="G49" s="87" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="H49" s="86" t="s">
         <v>924</v>
@@ -20544,10 +20541,10 @@
         <v>1034</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D50" s="171" t="s">
         <v>359</v>
@@ -20555,7 +20552,7 @@
       <c r="E50" s="87"/>
       <c r="F50" s="87"/>
       <c r="G50" s="87" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="H50" s="86" t="s">
         <v>746</v>
@@ -20567,13 +20564,13 @@
         <v>1625</v>
       </c>
       <c r="B51" s="165" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C51" s="87" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="171" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E51" s="87" t="s">
         <v>1800</v>
@@ -20582,7 +20579,7 @@
         <v>1800</v>
       </c>
       <c r="G51" s="87" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="H51" s="86" t="s">
         <v>728</v>
@@ -20593,13 +20590,13 @@
         <v>1626</v>
       </c>
       <c r="B52" s="165" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C52" s="87" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="171" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E52" s="87" t="s">
         <v>1796</v>
@@ -20608,7 +20605,7 @@
         <v>1796</v>
       </c>
       <c r="G52" s="87" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="H52" s="86" t="s">
         <v>723</v>
@@ -20619,10 +20616,10 @@
         <v>1006</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D53" s="171" t="s">
         <v>376</v>
@@ -20630,7 +20627,7 @@
       <c r="E53" s="87"/>
       <c r="F53" s="87"/>
       <c r="G53" s="87" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="H53" s="86" t="s">
         <v>749</v>
@@ -20642,7 +20639,7 @@
         <v>1587</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C54" s="87" t="s">
         <v>78</v>
@@ -20653,7 +20650,7 @@
       <c r="E54" s="87"/>
       <c r="F54" s="87"/>
       <c r="G54" s="87" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="H54" s="86" t="s">
         <v>900</v>
@@ -20665,7 +20662,7 @@
         <v>1051</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C55" s="87" t="s">
         <v>815</v>
@@ -20680,7 +20677,7 @@
         <v>862</v>
       </c>
       <c r="G55" s="87" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="H55" s="86" t="s">
         <v>899</v>
@@ -20692,7 +20689,7 @@
         <v>1681</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>80</v>
@@ -20703,7 +20700,7 @@
       <c r="E56" s="87"/>
       <c r="F56" s="87"/>
       <c r="G56" s="87" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H56" s="86" t="s">
         <v>873</v>
@@ -20714,10 +20711,10 @@
         <v>1004</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D57" s="170" t="s">
         <v>779</v>
@@ -20729,7 +20726,7 @@
         <v>778</v>
       </c>
       <c r="G57" s="87" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="H57" s="86" t="s">
         <v>920</v>
@@ -20740,10 +20737,10 @@
         <v>1007</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D58" s="171" t="s">
         <v>406</v>
@@ -20751,7 +20748,7 @@
       <c r="E58" s="87"/>
       <c r="F58" s="87"/>
       <c r="G58" s="87" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="H58" s="86" t="s">
         <v>741</v>
@@ -20762,10 +20759,10 @@
         <v>952</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C59" s="87" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D59" s="171" t="s">
         <v>567</v>
@@ -20777,7 +20774,7 @@
         <v>571</v>
       </c>
       <c r="G59" s="87" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="H59" s="86" t="s">
         <v>698</v>
@@ -20788,10 +20785,10 @@
         <v>953</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D60" s="171" t="s">
         <v>569</v>
@@ -20803,7 +20800,7 @@
         <v>573</v>
       </c>
       <c r="G60" s="87" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="H60" s="86" t="s">
         <v>700</v>
@@ -20814,10 +20811,10 @@
         <v>1002</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D61" s="171" t="s">
         <v>568</v>
@@ -20829,7 +20826,7 @@
         <v>572</v>
       </c>
       <c r="G61" s="87" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="H61" s="86" t="s">
         <v>699</v>
@@ -20840,10 +20837,10 @@
         <v>955</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D62" s="171" t="s">
         <v>535</v>
@@ -20855,7 +20852,7 @@
         <v>541</v>
       </c>
       <c r="G62" s="87" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="H62" s="86" t="s">
         <v>687</v>
@@ -20866,7 +20863,7 @@
         <v>1629</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C63" s="87" t="s">
         <v>1478</v>
@@ -20881,7 +20878,7 @@
         <v>542</v>
       </c>
       <c r="G63" s="87" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="H63" s="86" t="s">
         <v>688</v>
@@ -20892,10 +20889,10 @@
         <v>993</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D64" s="171" t="s">
         <v>540</v>
@@ -20907,7 +20904,7 @@
         <v>543</v>
       </c>
       <c r="G64" s="87" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="H64" s="86" t="s">
         <v>689</v>
@@ -20918,13 +20915,13 @@
         <v>1645</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C65" s="87" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="171" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="E65" s="87" t="s">
         <v>803</v>
@@ -20933,7 +20930,7 @@
         <v>803</v>
       </c>
       <c r="G65" s="87" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="H65" s="86" t="s">
         <v>877</v>
@@ -20944,7 +20941,7 @@
         <v>1567</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C66" s="87" t="s">
         <v>812</v>
@@ -20959,7 +20956,7 @@
         <v>860</v>
       </c>
       <c r="G66" s="87" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="H66" s="86" t="s">
         <v>893</v>
@@ -20970,7 +20967,7 @@
         <v>1588</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C67" s="87" t="s">
         <v>99</v>
@@ -20981,7 +20978,7 @@
       <c r="E67" s="87"/>
       <c r="F67" s="87"/>
       <c r="G67" s="87" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="H67" s="86" t="s">
         <v>894</v>
@@ -20992,7 +20989,7 @@
         <v>1202</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C68" s="87" t="s">
         <v>100</v>
@@ -21003,7 +21000,7 @@
       <c r="E68" s="87"/>
       <c r="F68" s="87"/>
       <c r="G68" s="87" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="H68" s="86" t="s">
         <v>901</v>
@@ -21014,7 +21011,7 @@
         <v>1580</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C69" s="87" t="s">
         <v>102</v>
@@ -21029,7 +21026,7 @@
         <v>672</v>
       </c>
       <c r="G69" s="87" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="H69" s="86" t="s">
         <v>740</v>
@@ -21046,12 +21043,12 @@
         <v>1455</v>
       </c>
       <c r="D70" s="171" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="E70" s="87"/>
       <c r="F70" s="87"/>
       <c r="G70" s="87" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="H70" s="86" t="s">
         <v>916</v>
@@ -21077,7 +21074,7 @@
         <v>849</v>
       </c>
       <c r="G71" s="87" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="H71" s="86" t="s">
         <v>927</v>
@@ -21088,7 +21085,7 @@
         <v>1590</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C72" s="87" t="s">
         <v>113</v>
@@ -21099,7 +21096,7 @@
       <c r="E72" s="87"/>
       <c r="F72" s="87"/>
       <c r="G72" s="87" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="H72" s="86" t="s">
         <v>904</v>
@@ -21110,7 +21107,7 @@
         <v>985</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C73" s="87" t="s">
         <v>122</v>
@@ -21125,7 +21122,7 @@
         <v>291</v>
       </c>
       <c r="G73" s="87" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H73" s="86" t="s">
         <v>870</v>
@@ -21136,7 +21133,7 @@
         <v>1685</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C74" s="87" t="s">
         <v>128</v>
@@ -21147,7 +21144,7 @@
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
       <c r="G74" s="87" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="H74" s="86" t="s">
         <v>903</v>
@@ -21173,7 +21170,7 @@
         <v>850</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="H75" s="86" t="s">
         <v>928</v>
@@ -21184,7 +21181,7 @@
         <v>1623</v>
       </c>
       <c r="B76" s="165" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C76" s="87" t="s">
         <v>132</v>
@@ -21199,7 +21196,7 @@
         <v>1265</v>
       </c>
       <c r="G76" s="87" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="H76" s="86" t="s">
         <v>737</v>
@@ -21210,10 +21207,10 @@
         <v>1821</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C77" s="87" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D77" s="171" t="s">
         <v>343</v>
@@ -21225,7 +21222,7 @@
         <v>316</v>
       </c>
       <c r="G77" s="87" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="H77" s="86" t="s">
         <v>487</v>
@@ -21236,10 +21233,10 @@
         <v>951</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C78" s="87" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D78" s="171" t="s">
         <v>566</v>
@@ -21251,7 +21248,7 @@
         <v>570</v>
       </c>
       <c r="G78" s="87" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="H78" s="86" t="s">
         <v>697</v>
@@ -21262,13 +21259,13 @@
         <v>1647</v>
       </c>
       <c r="B79" s="165" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C79" s="87" t="s">
         <v>137</v>
       </c>
       <c r="D79" s="171" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E79" s="87" t="s">
         <v>1804</v>
@@ -21277,7 +21274,7 @@
         <v>1804</v>
       </c>
       <c r="G79" s="87" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="H79" s="86" t="s">
         <v>734</v>
@@ -21288,13 +21285,13 @@
         <v>1646</v>
       </c>
       <c r="B80" s="165" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C80" s="87" t="s">
         <v>138</v>
       </c>
       <c r="D80" s="171" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="E80" s="87" t="s">
         <v>1803</v>
@@ -21303,7 +21300,7 @@
         <v>1803</v>
       </c>
       <c r="G80" s="87" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="H80" s="86" t="s">
         <v>733</v>
@@ -21314,13 +21311,13 @@
         <v>954</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C81" s="87" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D81" s="171" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="E81" s="87" t="s">
         <v>537</v>
@@ -21329,7 +21326,7 @@
         <v>537</v>
       </c>
       <c r="G81" s="87" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="H81" s="86" t="s">
         <v>686</v>
@@ -21340,10 +21337,10 @@
         <v>1019</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C82" s="87" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D82" s="171" t="s">
         <v>771</v>
@@ -21355,7 +21352,7 @@
         <v>772</v>
       </c>
       <c r="G82" s="87" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H82" s="86" t="s">
         <v>923</v>
@@ -21366,7 +21363,7 @@
         <v>1624</v>
       </c>
       <c r="B83" s="165" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C83" s="87" t="s">
         <v>141</v>
@@ -21381,7 +21378,7 @@
         <v>1264</v>
       </c>
       <c r="G83" s="87" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="H83" s="86" t="s">
         <v>735</v>
@@ -21392,7 +21389,7 @@
         <v>1566</v>
       </c>
       <c r="B84" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C84" s="87" t="s">
         <v>146</v>
@@ -21403,7 +21400,7 @@
       <c r="E84" s="87"/>
       <c r="F84" s="87"/>
       <c r="G84" s="87" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="H84" s="86" t="s">
         <v>909</v>
@@ -21414,13 +21411,13 @@
         <v>1027</v>
       </c>
       <c r="B85" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C85" s="87" t="s">
         <v>150</v>
       </c>
       <c r="D85" s="171" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="E85" s="87" t="s">
         <v>549</v>
@@ -21429,7 +21426,7 @@
         <v>549</v>
       </c>
       <c r="G85" s="87" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="H85" s="86" t="s">
         <v>692</v>
@@ -21440,22 +21437,22 @@
         <v>1226</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C86" s="143" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D86" s="167" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="E86" s="143" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F86" s="143" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G86" s="87" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="H86" s="86" t="s">
         <v>925</v>
@@ -21466,7 +21463,7 @@
         <v>1648</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C87" s="87" t="s">
         <v>155</v>
@@ -21477,7 +21474,7 @@
       <c r="E87" s="87"/>
       <c r="F87" s="87"/>
       <c r="G87" s="87" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="H87" s="86" t="s">
         <v>742</v>
@@ -21488,7 +21485,7 @@
         <v>1591</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C88" s="87" t="s">
         <v>157</v>
@@ -21499,7 +21496,7 @@
       <c r="E88" s="87"/>
       <c r="F88" s="87"/>
       <c r="G88" s="87" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="H88" s="86" t="s">
         <v>906</v>
@@ -21510,10 +21507,10 @@
         <v>1204</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C89" s="87" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D89" s="172" t="s">
         <v>818</v>
@@ -21525,7 +21522,7 @@
         <v>863</v>
       </c>
       <c r="G89" s="87" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="H89" s="86" t="s">
         <v>905</v>
@@ -21536,13 +21533,13 @@
         <v>1712</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C90" s="87" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D90" s="171" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="E90" s="87" t="s">
         <v>559</v>
@@ -21551,7 +21548,7 @@
         <v>559</v>
       </c>
       <c r="G90" s="87" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="H90" s="86" t="s">
         <v>696</v>
@@ -21562,18 +21559,18 @@
         <v>1033</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C91" s="87" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D91" s="171" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="E91" s="87"/>
       <c r="F91" s="87"/>
       <c r="G91" s="87" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="H91" s="86" t="s">
         <v>915</v>
@@ -21584,10 +21581,10 @@
         <v>992</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C92" s="87" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D92" s="171" t="s">
         <v>556</v>
@@ -21599,7 +21596,7 @@
         <v>558</v>
       </c>
       <c r="G92" s="87" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="H92" s="86" t="s">
         <v>482</v>
@@ -21610,10 +21607,10 @@
         <v>1037</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C93" s="87" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D93" s="170" t="s">
         <v>838</v>
@@ -21625,7 +21622,7 @@
         <v>867</v>
       </c>
       <c r="G93" s="87" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>919</v>
@@ -21636,7 +21633,7 @@
         <v>1573</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C94" s="87" t="s">
         <v>311</v>
@@ -21651,7 +21648,7 @@
         <v>565</v>
       </c>
       <c r="G94" s="87" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>499</v>
@@ -21662,13 +21659,13 @@
         <v>1147</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C95" s="87" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D95" s="171" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E95" s="87" t="s">
         <v>561</v>
@@ -21677,7 +21674,7 @@
         <v>561</v>
       </c>
       <c r="G95" s="87" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="H95" s="86" t="s">
         <v>491</v>
@@ -21689,7 +21686,7 @@
         <v>1163</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C96" s="87" t="s">
         <v>331</v>
@@ -21704,7 +21701,7 @@
         <v>676</v>
       </c>
       <c r="G96" s="87" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H96" s="86" t="s">
         <v>738</v>
@@ -21716,7 +21713,7 @@
         <v>1039</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C97" s="87" t="s">
         <v>332</v>
@@ -21727,7 +21724,7 @@
       <c r="E97" s="87"/>
       <c r="F97" s="87"/>
       <c r="G97" s="87" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="H97" s="86" t="s">
         <v>753</v>
@@ -21738,7 +21735,7 @@
         <v>1016</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C98" s="87" t="s">
         <v>333</v>
@@ -21749,7 +21746,7 @@
       <c r="E98" s="87"/>
       <c r="F98" s="87"/>
       <c r="G98" s="87" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="H98" s="86" t="s">
         <v>758</v>
@@ -21761,7 +21758,7 @@
         <v>1017</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C99" s="87" t="s">
         <v>334</v>
@@ -21772,7 +21769,7 @@
       <c r="E99" s="87"/>
       <c r="F99" s="87"/>
       <c r="G99" s="87" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="H99" s="86" t="s">
         <v>755</v>
@@ -21784,13 +21781,13 @@
         <v>1156</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C100" s="87" t="s">
         <v>455</v>
       </c>
       <c r="D100" s="167" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="E100" s="87" t="s">
         <v>1559</v>
@@ -21799,7 +21796,7 @@
         <v>1559</v>
       </c>
       <c r="G100" s="87" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="H100" s="86" t="s">
         <v>489</v>
@@ -21811,13 +21808,13 @@
         <v>1254</v>
       </c>
       <c r="B101" s="165" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C101" s="87" t="s">
         <v>456</v>
       </c>
       <c r="D101" s="171" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E101" s="87" t="s">
         <v>1557</v>
@@ -21826,7 +21823,7 @@
         <v>1557</v>
       </c>
       <c r="G101" s="87" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="H101" s="86" t="s">
         <v>725</v>
@@ -21838,13 +21835,13 @@
         <v>1157</v>
       </c>
       <c r="B102" s="165" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C102" s="87" t="s">
         <v>457</v>
       </c>
       <c r="D102" s="171" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E102" s="87" t="s">
         <v>1558</v>
@@ -21853,7 +21850,7 @@
         <v>1558</v>
       </c>
       <c r="G102" s="87" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="H102" s="86" t="s">
         <v>720</v>
@@ -21865,13 +21862,13 @@
         <v>1632</v>
       </c>
       <c r="B103" s="165" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C103" s="87" t="s">
         <v>177</v>
       </c>
       <c r="D103" s="171" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="E103" s="87" t="s">
         <v>1799</v>
@@ -21880,7 +21877,7 @@
         <v>1799</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="H103" s="86" t="s">
         <v>727</v>
@@ -21892,13 +21889,13 @@
         <v>1633</v>
       </c>
       <c r="B104" s="165" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C104" s="87" t="s">
         <v>179</v>
       </c>
       <c r="D104" s="171" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E104" s="87" t="s">
         <v>1795</v>
@@ -21907,7 +21904,7 @@
         <v>1795</v>
       </c>
       <c r="G104" s="87" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="H104" s="86" t="s">
         <v>722</v>
@@ -21919,7 +21916,7 @@
         <v>1593</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C105" s="87" t="s">
         <v>181</v>
@@ -21930,7 +21927,7 @@
       <c r="E105" s="87"/>
       <c r="F105" s="87"/>
       <c r="G105" s="87" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="H105" s="86" t="s">
         <v>908</v>
@@ -21942,7 +21939,7 @@
         <v>1174</v>
       </c>
       <c r="B106" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C106" s="87" t="s">
         <v>335</v>
@@ -21953,7 +21950,7 @@
       <c r="E106" s="87"/>
       <c r="F106" s="87"/>
       <c r="G106" s="87" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="H106" s="86" t="s">
         <v>754</v>
@@ -21964,7 +21961,7 @@
         <v>1178</v>
       </c>
       <c r="B107" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C107" s="87" t="s">
         <v>336</v>
@@ -21975,7 +21972,7 @@
       <c r="E107" s="87"/>
       <c r="F107" s="87"/>
       <c r="G107" s="87" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="H107" s="86" t="s">
         <v>792</v>
@@ -21986,7 +21983,7 @@
         <v>1176</v>
       </c>
       <c r="B108" s="109" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C108" s="87" t="s">
         <v>337</v>
@@ -21997,7 +21994,7 @@
       <c r="E108" s="87"/>
       <c r="F108" s="87"/>
       <c r="G108" s="87" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="H108" s="86" t="s">
         <v>756</v>
@@ -22008,7 +22005,7 @@
         <v>1049</v>
       </c>
       <c r="B109" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C109" s="87" t="s">
         <v>819</v>
@@ -22023,7 +22020,7 @@
         <v>864</v>
       </c>
       <c r="G109" s="87" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="H109" s="86" t="s">
         <v>907</v>
@@ -22035,13 +22032,13 @@
         <v>1044</v>
       </c>
       <c r="B110" s="49" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C110" s="87" t="s">
         <v>185</v>
       </c>
       <c r="D110" s="171" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="E110" s="87" t="s">
         <v>550</v>
@@ -22050,7 +22047,7 @@
         <v>550</v>
       </c>
       <c r="G110" s="87" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H110" s="86" t="s">
         <v>693</v>
@@ -22062,10 +22059,10 @@
         <v>1009</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C111" s="87" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D111" s="167" t="s">
         <v>1233</v>
@@ -22077,7 +22074,7 @@
         <v>564</v>
       </c>
       <c r="G111" s="87" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="H111" s="86" t="s">
         <v>498</v>
@@ -22089,7 +22086,7 @@
         <v>1682</v>
       </c>
       <c r="B112" s="49" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C112" s="87" t="s">
         <v>186</v>
@@ -22100,7 +22097,7 @@
       <c r="E112" s="87"/>
       <c r="F112" s="87"/>
       <c r="G112" s="87" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="H112" s="86" t="s">
         <v>874</v>
@@ -22111,7 +22108,7 @@
         <v>1636</v>
       </c>
       <c r="B113" s="49" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C113" s="87" t="s">
         <v>190</v>
@@ -22122,7 +22119,7 @@
       <c r="E113" s="87"/>
       <c r="F113" s="87"/>
       <c r="G113" s="87" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="H113" s="86" t="s">
         <v>743</v>
@@ -22133,7 +22130,7 @@
         <v>1564</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C114" s="87"/>
       <c r="D114" s="168" t="s">
@@ -22146,29 +22143,29 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="143" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B115" s="109" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D115" s="168" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E115" s="143" t="s">
         <v>2670</v>
-      </c>
-      <c r="B115" s="109" t="s">
-        <v>2632</v>
-      </c>
-      <c r="D115" s="168" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E115" s="143" t="s">
-        <v>2671</v>
       </c>
       <c r="H115" s="44"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="87" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B116" s="165" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C116" s="87"/>
       <c r="D116" s="168" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E116" s="87"/>
       <c r="F116" s="87"/>
@@ -22177,14 +22174,14 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="87" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B117" s="49" t="s">
         <v>991</v>
       </c>
       <c r="C117" s="87"/>
       <c r="D117" s="168" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="E117" s="87"/>
       <c r="F117" s="87"/>
@@ -22333,19 +22330,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="83" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H136" s="44"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="143" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="H137" s="44"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="143" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="12"/>
@@ -22354,7 +22351,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="143" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="12"/>
@@ -22369,7 +22366,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="83" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="12"/>
@@ -22592,7 +22589,7 @@
         <v>1744</v>
       </c>
       <c r="C151" s="87" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D151" s="116" t="s">
         <v>802</v>
@@ -22612,7 +22609,7 @@
         <v>1743</v>
       </c>
       <c r="C152" s="106" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D152" s="106" t="s">
         <v>762</v>
@@ -23011,10 +23008,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A144" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" location="prism_id" display="http://purl.obolibrary.org/obo/eupath/icemr.owl#prism_id"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23022,8 +23018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P515"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23044,13 +23040,13 @@
         <v>1727</v>
       </c>
       <c r="C1" s="148" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D1" s="151" t="s">
         <v>1818</v>
       </c>
       <c r="E1" s="148" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="148" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -23060,8 +23056,8 @@
       <c r="D2" s="151" t="s">
         <v>1819</v>
       </c>
-      <c r="E2" s="151" t="s">
-        <v>1834</v>
+      <c r="E2" s="164" t="s">
+        <v>2812</v>
       </c>
       <c r="F2" s="151"/>
       <c r="G2" s="151"/>
@@ -24588,73 +24584,73 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="153" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B109" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C109" s="158" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D109" s="82"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="153" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B110" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C110" s="158" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D110" s="82"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="153" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B111" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C111" s="158" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D111" s="82"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="153" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B112" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C112" s="158" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D112" s="82"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="153" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B113" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C113" s="143" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D113" s="82"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="153" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B114" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C114" s="143" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D114" s="82"/>
     </row>
@@ -24666,7 +24662,7 @@
         <v>991</v>
       </c>
       <c r="C115" s="159" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D115" s="82"/>
     </row>
@@ -24678,859 +24674,859 @@
         <v>991</v>
       </c>
       <c r="C116" s="159" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D116" s="82"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="153" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B117" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C117" s="158" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D117" s="82"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="153" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B118" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C118" s="158" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D118" s="82"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="153" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B119" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C119" s="158" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D119" s="82"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="153" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B120" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C120" s="158" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D120" s="82"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="153" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B121" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C121" s="143" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D121" s="82"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="153" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B122" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C122" s="143" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D122" s="82"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="153" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B123" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C123" s="158" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D123" s="82"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="153" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B124" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C124" s="143" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D124" s="82"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="153" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B125" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C125" s="143" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D125" s="82"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="153" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B126" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C126" s="143" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D126" s="82"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="153" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B127" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C127" s="159" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D127" s="82"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="153" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B128" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C128" s="158" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D128" s="82"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="153" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B129" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C129" s="143" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D129" s="82"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="153" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B130" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C130" s="143" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D130" s="82"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="153" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B131" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C131" s="159" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D131" s="82"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="153" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B132" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C132" s="158" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D132" s="82"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="153" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B133" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C133" s="159" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D133" s="82"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="153" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B134" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C134" s="159" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D134" s="82"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="153" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B135" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C135" s="159" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D135" s="82"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="153" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B136" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C136" s="159" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D136" s="82"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="153" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B137" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C137" s="158" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D137" s="82"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="153" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B138" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C138" s="143" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D138" s="82"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="153" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B139" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C139" s="158" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D139" s="82"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="153" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B140" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C140" s="143" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D140" s="82"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="153" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B141" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C141" s="143" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D141" s="82"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="153" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B142" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C142" s="158" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D142" s="82"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="153" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B143" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C143" s="159" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D143" s="82"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="153" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B144" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C144" s="143" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D144" s="82"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="153" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B145" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C145" s="143" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D145" s="82"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="153" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B146" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C146" s="158" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D146" s="82"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="153" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B147" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C147" s="160" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D147" s="82"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="153" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B148" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C148" s="143" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D148" s="82"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="153" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B149" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C149" s="143" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D149" s="82"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="153" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B150" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C150" s="143" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D150" s="82"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="153" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B151" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C151" s="143" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D151" s="82"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="153" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B152" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C152" s="159" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D152" s="82"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="153" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B153" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C153" s="158" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D153" s="82"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="153" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B154" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C154" s="143" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D154" s="82"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="153" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B155" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C155" s="143" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D155" s="82"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="153" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B156" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C156" s="143" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D156" s="82"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="153" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B157" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C157" s="159" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D157" s="82"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="153" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B158" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C158" s="159" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D158" s="82"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="153" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B159" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C159" s="143" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D159" s="82"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="153" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B160" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C160" s="143" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D160" s="82"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="153" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B161" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C161" s="143" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D161" s="82"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="153" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B162" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C162" s="143" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D162" s="82"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="153" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B163" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C163" s="143" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D163" s="82"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="153" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B164" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C164" s="143" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D164" s="82"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="153" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B165" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C165" s="158" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D165" s="82"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="153" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B166" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C166" s="158" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D166" s="82"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="153" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B167" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C167" s="143" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D167" s="82"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="153" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B168" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C168" s="143" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D168" s="82"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="153" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B169" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C169" s="143" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D169" s="82"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="153" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B170" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C170" s="158" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D170" s="82"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="153" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B171" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C171" s="143" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D171" s="82"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="153" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B172" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C172" s="143" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D172" s="82"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="153" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B173" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C173" s="143" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D173" s="82"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="153" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B174" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C174" s="143" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D174" s="82"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="153" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B175" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C175" s="158" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D175" s="82"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="153" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B176" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C176" s="158" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D176" s="82"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="153" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B177" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C177" s="143" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D177" s="82"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="153" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B178" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C178" s="143" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D178" s="82"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="153" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B179" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C179" s="158" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D179" s="82"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="153" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B180" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C180" s="143" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D180" s="82"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="153" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B181" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C181" s="158" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D181" s="82"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="153" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B182" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C182" s="158" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D182" s="82"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="153" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B183" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C183" s="159" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D183" s="82"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="153" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B184" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C184" s="159" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D184" s="82"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="153" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B185" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C185" s="159" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D185" s="82"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="153" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B186" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C186" s="143" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D186" s="82"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="153" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B187" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C187" s="143" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D187" s="82"/>
     </row>
@@ -25542,7 +25538,7 @@
         <v>991</v>
       </c>
       <c r="C188" s="159" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D188" s="82"/>
     </row>
@@ -25554,877 +25550,877 @@
         <v>991</v>
       </c>
       <c r="C189" s="159" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D189" s="82"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="153" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B190" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C190" s="159" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D190" s="82"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="153" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B191" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C191" s="143" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D191" s="82"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="153" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B192" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C192" s="158" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D192" s="82"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="153" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B193" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C193" s="143" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D193" s="82"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="153" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B194" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C194" s="143" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D194" s="82"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="153" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B195" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C195" s="158" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D195" s="82"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="153" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B196" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C196" s="158" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D196" s="82"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="153" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B197" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C197" s="143" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D197" s="82"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="153" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B198" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C198" s="143" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D198" s="82"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="153" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B199" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C199" s="159" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D199" s="82"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="153" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B200" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C200" s="143" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D200" s="82"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="153" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B201" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C201" s="143" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D201" s="82"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="153" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B202" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C202" s="143" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D202" s="82"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="153" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B203" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C203" s="143" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D203" s="82"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="153" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B204" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C204" s="143" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D204" s="82"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="153" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B205" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C205" s="158" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D205" s="82"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="153" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B206" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C206" s="143" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D206" s="82"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="153" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B207" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C207" s="159" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D207" s="82"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="153" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B208" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C208" s="159" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D208" s="82"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="153" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B209" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C209" s="158" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D209" s="82"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="153" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B210" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C210" s="143" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D210" s="82"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="153" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B211" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C211" s="143" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D211" s="82"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="153" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B212" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C212" s="158" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D212" s="82"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="153" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B213" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C213" s="143" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D213" s="82"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="153" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B214" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C214" s="143" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D214" s="82"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="153" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B215" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C215" s="159" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D215" s="82"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="153" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B216" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C216" s="159" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D216" s="82"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="153" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B217" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C217" s="143" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D217" s="82"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="153" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B218" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C218" s="143" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D218" s="82"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="153" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B219" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C219" s="143" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D219" s="82"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="153" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B220" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C220" s="158" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D220" s="82"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="153" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B221" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C221" s="143" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D221" s="82"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="153" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B222" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C222" s="143" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D222" s="82"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="153" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B223" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C223" s="158" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D223" s="82"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="153" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B224" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C224" s="143" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D224" s="82"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="153" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B225" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C225" s="158" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D225" s="82"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="153" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B226" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C226" s="143" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D226" s="82"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="153" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B227" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C227" s="158" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D227" s="82"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="153" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B228" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C228" s="143" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D228" s="82"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="153" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B229" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C229" s="158" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D229" s="82"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="153" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B230" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C230" s="158" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D230" s="82"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="153" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B231" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C231" s="159" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D231" s="82"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="153" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B232" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C232" s="159" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D232" s="82"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="153" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B233" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C233" s="159" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D233" s="82"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="153" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B234" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C234" s="143" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D234" s="82"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="153" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B235" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C235" s="143" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D235" s="82"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="153" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B236" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C236" s="143" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D236" s="82"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="153" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B237" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C237" s="143" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D237" s="82"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="153" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B238" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C238" s="143" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D238" s="82"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="153" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B239" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C239" s="143" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D239" s="82"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="153" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B240" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C240" s="143" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D240" s="82"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="153" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B241" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C241" s="143" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D241" s="82"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="153" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B242" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C242" s="143" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D242" s="82"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="153" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B243" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C243" s="143" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D243" s="82"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="153" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B244" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C244" s="158" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D244" s="82"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="153" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B245" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C245" s="158" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D245" s="82"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="153" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B246" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C246" s="158" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D246" s="82"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="153" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B247" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C247" s="143" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D247" s="82"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="153" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B248" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C248" s="143" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D248" s="82"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="153" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B249" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C249" s="158" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D249" s="82"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="153" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B250" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C250" s="143" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D250" s="82"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="153" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B251" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C251" s="143" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D251" s="82"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="153" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B252" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C252" s="158" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D252" s="82"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="153" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B253" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C253" s="143" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D253" s="82"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="153" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B254" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C254" s="143" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D254" s="82"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="153" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B255" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C255" s="143" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D255" s="82"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="153" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B256" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C256" s="158" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D256" s="82"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="153" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B257" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C257" s="159" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D257" s="82"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="153" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B258" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C258" s="143" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D258" s="82"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="153" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B259" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C259" s="159" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D259" s="82"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="153" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B260" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C260" s="159" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D260" s="82"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="153" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B261" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C261" s="159" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D261" s="82"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="153" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B262" s="87" t="s">
         <v>991</v>
@@ -26436,1437 +26432,1437 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="153" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B263" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C263" s="159" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D263" s="82"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="153" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B264" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C264" s="159" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D264" s="82"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="153" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B265" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C265" s="143" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D265" s="82"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="153" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B266" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C266" s="143" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D266" s="82"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="153" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B267" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C267" s="143" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D267" s="82"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="153" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B268" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C268" s="158" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D268" s="82"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="153" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B269" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C269" s="143" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D269" s="82"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="153" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B270" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C270" s="158" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D270" s="82"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="153" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B271" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C271" s="159" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D271" s="82"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="153" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B272" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C272" s="159" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D272" s="82"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="153" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B273" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C273" s="159" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D273" s="82"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="153" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B274" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C274" s="143" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D274" s="82"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="153" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B275" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C275" s="143" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D275" s="82"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="153" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B276" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C276" s="159" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D276" s="82"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="153" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B277" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C277" s="159" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D277" s="82"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="153" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B278" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C278" s="143" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D278" s="82"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="153" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B279" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C279" s="159" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D279" s="82"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="153" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B280" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C280" s="159" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D280" s="82"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="153" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B281" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C281" s="159" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D281" s="82"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="153" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B282" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C282" s="159" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D282" s="82"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="153" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B283" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C283" s="143" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D283" s="82"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="153" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B284" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C284" s="143" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D284" s="82"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="153" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B285" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C285" s="159" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D285" s="82"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="153" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B286" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C286" s="143" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D286" s="82"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="153" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B287" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C287" s="158" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D287" s="82"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="153" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B288" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C288" s="143" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D288" s="82"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="153" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B289" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C289" s="143" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D289" s="82"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="153" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B290" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C290" s="158" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D290" s="82"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="153" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B291" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C291" s="143" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D291" s="82"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="153" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B292" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C292" s="143" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D292" s="82"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="153" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B293" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C293" s="143" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D293" s="82"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="153" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B294" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C294" s="158" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D294" s="82"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="153" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B295" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C295" s="159" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D295" s="82"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="153" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B296" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C296" s="159" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D296" s="82"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="153" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B297" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C297" s="143" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D297" s="82"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="153" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B298" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C298" s="143" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D298" s="82"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="153" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B299" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C299" s="159" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D299" s="82"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="153" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B300" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C300" s="159" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D300" s="82"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="87" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B301" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C301" s="143" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="87" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B302" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C302" s="143" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="87" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B303" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C303" s="143" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="87" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B304" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C304" s="143" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="87" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B305" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C305" s="143" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="87" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B306" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C306" s="143" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="87" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B307" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C307" s="143" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="87" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B308" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C308" s="143" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="87" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B309" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C309" s="143" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="86" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B310" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C310" s="159" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="87" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B311" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C311" s="159" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="87" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B312" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C312" s="143" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="87" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B313" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C313" s="143" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="87" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B314" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C314" s="158" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="87" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B315" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C315" s="143" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="87" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B316" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C316" s="143" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="87" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B317" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C317" s="158" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="87" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B318" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C318" s="158" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="87" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B319" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C319" s="143" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="87" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B320" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C320" s="159" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="87" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B321" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C321" s="143" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="87" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B322" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C322" s="158" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="87" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B323" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C323" s="158" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="87" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B324" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C324" s="159" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="87" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B325" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C325" s="159" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="87" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B326" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C326" s="158" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="87" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B327" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C327" s="158" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="87" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B328" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C328" s="158" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="87" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B329" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C329" s="158" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="87" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B330" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C330" s="143" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="87" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B331" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C331" s="143" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="87" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B332" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C332" s="143" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="87" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B333" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C333" s="143" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="87" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B334" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C334" s="159" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="87" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B335" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C335" s="143" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="87" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B336" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C336" s="143" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="87" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B337" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C337" s="160" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="87" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B338" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C338" s="143" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="87" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B339" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C339" s="143" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="87" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B340" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C340" s="143" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="87" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B341" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C341" s="143" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="87" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B342" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C342" s="158" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="87" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B343" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C343" s="143" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="87" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B344" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C344" s="143" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="87" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B345" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C345" s="143" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="87" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B346" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C346" s="158" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="87" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B347" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C347" s="159" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="87" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B348" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C348" s="159" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="87" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B349" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C349" s="159" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="87" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B350" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C350" s="159" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="87" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B351" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C351" s="159" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="87" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B352" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C352" s="158" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="87" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B353" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C353" s="159" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="87" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B354" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C354" s="159" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="87" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B355" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C355" s="159" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="87" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B356" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C356" s="143" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="87" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B357" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C357" s="159" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="87" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B358" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C358" s="158" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="87" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B359" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C359" s="143" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="87" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B360" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C360" s="158" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="87" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B361" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C361" s="143" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="87" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B362" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C362" s="143" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="87" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B363" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C363" s="158" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="87" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B364" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C364" s="143" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="87" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B365" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C365" s="159" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="87" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B366" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C366" s="159" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="87" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B367" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C367" s="143" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="87" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B368" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C368" s="143" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="87" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B369" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C369" s="159" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="87" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B370" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C370" s="159" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="87" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B371" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C371" s="159" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="87" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B372" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C372" s="158" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="87" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B373" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C373" s="158" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="87" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B374" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C374" s="159" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="87" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B375" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C375" s="159" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="87" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B376" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C376" s="159" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="87" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B377" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C377" s="159" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="87" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B378" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C378" s="158" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="87" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B379" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C379" s="158" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="87" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B380" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C380" s="158" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="87" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B381" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C381" s="143" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="87" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B382" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C382" s="143" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="87" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B383" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C383" s="143" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="87" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B384" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C384" s="143" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="87" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B385" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C385" s="143" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="87" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B386" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C386" s="143" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="87" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B387" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C387" s="159" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="87" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B388" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C388" s="159" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="87" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B389" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C389" s="158" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27877,40 +27873,40 @@
         <v>991</v>
       </c>
       <c r="C390" s="158" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="87" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B391" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C391" s="158" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="87" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B392" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C392" s="158" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="87" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B393" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C393" s="158" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27921,95 +27917,95 @@
         <v>991</v>
       </c>
       <c r="C394" s="159" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="87" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B395" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C395" s="158" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="87" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B396" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C396" s="158" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="87" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B397" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C397" s="158" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="87" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B398" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C398" s="158" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="87" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B399" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C399" s="158" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="87" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B400" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C400" s="158" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="87" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B401" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C401" s="158" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="87" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B402" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C402" s="158" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -28020,337 +28016,337 @@
         <v>991</v>
       </c>
       <c r="C403" s="158" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="87" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B404" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C404" s="158" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="87" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B405" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C405" s="158" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="87" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B406" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C406" s="158" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="87" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B407" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C407" s="159" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="87" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B408" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C408" s="158" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="87" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B409" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C409" s="158" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="87" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B410" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C410" s="158" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="87" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B411" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C411" s="158" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="87" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B412" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C412" s="158" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B413" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C413" s="158" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="87" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B414" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C414" s="158" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="87" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B415" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C415" s="158" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="87" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B416" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C416" s="159" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="87" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B417" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C417" s="159" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="87" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B418" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C418" s="158" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="87" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B419" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C419" s="159" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="87" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B420" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C420" s="158" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="87" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B421" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C421" s="159" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="87" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B422" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C422" s="158" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="87" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B423" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C423" s="159" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B424" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C424" s="158" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="87" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B425" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C425" s="158" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="87" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B426" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C426" s="158" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="87" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B427" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C427" s="158" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="87" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B428" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C428" s="158" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B429" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C429" s="158" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="87" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B430" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C430" s="158" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="87" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B431" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C431" s="158" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="87" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B432" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C432" s="158" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="87" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B433" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C433" s="158" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28366,519 +28362,519 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="87" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B435" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C435" s="158" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="87" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B436" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C436" s="158" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="87" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B437" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C437" s="158" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="87" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B438" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C438" s="159" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="87" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B439" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C439" s="159" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="87" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B440" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C440" s="159" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="87" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B441" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C441" s="159" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="87" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B442" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C442" s="159" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="87" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B443" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C443" s="159" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="87" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B444" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C444" s="159" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="87" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B445" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C445" s="159" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="87" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B446" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C446" s="159" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="87" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B447" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C447" s="159" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="87" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B448" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C448" s="159" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="87" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B449" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C449" s="159" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="87" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B450" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C450" s="159" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B451" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C451" s="159" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="87" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B452" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C452" s="143" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="87" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B453" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C453" s="159" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="87" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B454" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C454" s="159" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="87" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B455" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C455" s="159" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="87" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B456" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C456" s="159" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="87" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B457" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C457" s="159" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="87" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B458" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C458" s="159" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="87" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B459" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C459" s="159" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="87" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B460" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C460" s="159" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="87" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B461" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C461" s="159" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="87" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B462" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C462" s="159" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="87" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B463" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C463" s="159" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="87" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B464" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C464" s="159" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="87" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B465" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C465" s="159" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="87" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B466" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C466" s="159" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="87" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B467" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C467" s="159" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="87" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B468" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C468" s="159" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="87" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B469" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C469" s="159" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="87" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B470" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C470" s="159" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="87" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B471" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C471" s="159" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="87" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B472" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C472" s="159" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="87" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B473" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C473" s="159" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="87" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B474" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C474" s="159" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="87" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B475" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C475" s="159" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="87" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B476" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C476" s="159" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="87" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B477" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C477" s="159" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="87" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B478" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C478" s="159" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="87" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B479" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C479" s="159" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="87" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B480" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C480" s="159" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="87" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B481" s="87" t="s">
         <v>991</v>
       </c>
       <c r="C481" s="159" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -29168,7 +29164,7 @@
         <v>1493</v>
       </c>
       <c r="D494" s="116" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="E494" s="87" t="s">
         <v>594</v>
@@ -29374,10 +29370,10 @@
         <v>1785</v>
       </c>
       <c r="B508" s="87" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C508" s="106" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -29385,7 +29381,7 @@
         <v>1787</v>
       </c>
       <c r="B509" s="87" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -29419,7 +29415,7 @@
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" s="87" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
   </sheetData>
@@ -29453,7 +29449,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B1" s="87" t="s">
         <v>1432</v>
@@ -29461,7 +29457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>1433</v>
@@ -29469,7 +29465,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B3" s="87" t="s">
         <v>1434</v>
@@ -29477,7 +29473,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>1435</v>
@@ -29485,7 +29481,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>1435</v>
@@ -29493,7 +29489,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>1435</v>
@@ -29501,7 +29497,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>1435</v>
@@ -29509,7 +29505,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>1435</v>
@@ -29517,7 +29513,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B9" s="87" t="s">
         <v>1435</v>
@@ -29525,7 +29521,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B10" s="87" t="s">
         <v>1435</v>
@@ -29533,7 +29529,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>1436</v>
@@ -29541,7 +29537,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>1436</v>
@@ -29549,7 +29545,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B13" s="87" t="s">
         <v>1436</v>
@@ -29557,7 +29553,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>1436</v>
@@ -29565,7 +29561,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>1436</v>
@@ -29573,7 +29569,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>1436</v>
@@ -29581,7 +29577,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B17" s="87" t="s">
         <v>1437</v>
@@ -29589,7 +29585,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B18" s="87" t="s">
         <v>1437</v>
@@ -29619,24 +29615,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>1837</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>1838</v>
-      </c>
       <c r="C1" s="83" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1" s="83" t="s">
         <v>1897</v>
       </c>
-      <c r="D1" s="83" t="s">
-        <v>1898</v>
-      </c>
       <c r="E1" s="83" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B2" t="s">
         <v>544</v>
@@ -29650,7 +29646,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B3" t="s">
         <v>532</v>
@@ -29664,7 +29660,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B4" t="s">
         <v>535</v>
@@ -29692,7 +29688,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B6" t="s">
         <v>540</v>
@@ -29776,7 +29772,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B12" t="s">
         <v>555</v>
@@ -29790,7 +29786,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B13" t="s">
         <v>556</v>
@@ -29804,7 +29800,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B14" t="s">
         <v>557</v>
@@ -29818,7 +29814,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B15" t="s">
         <v>560</v>
@@ -29832,7 +29828,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B16" t="s">
         <v>562</v>
@@ -29860,7 +29856,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B18" t="s">
         <v>566</v>
@@ -29874,7 +29870,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B19" t="s">
         <v>567</v>
@@ -29888,7 +29884,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B20" t="s">
         <v>568</v>
@@ -29902,7 +29898,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B21" t="s">
         <v>569</v>
@@ -30269,7 +30265,7 @@
         <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C47" s="143" t="s">
         <v>722</v>
@@ -30353,7 +30349,7 @@
         <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C53" s="143" t="s">
         <v>727</v>
@@ -30546,7 +30542,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B67" t="s">
         <v>406</v>
@@ -30603,7 +30599,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B71" t="s">
         <v>359</v>
@@ -30617,7 +30613,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B72" t="s">
         <v>460</v>
@@ -30631,7 +30627,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="143" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B73" s="143" t="s">
         <v>375</v>
@@ -30645,7 +30641,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="143" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B74" s="143" t="s">
         <v>376</v>
@@ -30702,7 +30698,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B78" t="s">
         <v>399</v>
@@ -30828,7 +30824,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B87" t="s">
         <v>762</v>
@@ -30896,7 +30892,7 @@
         <v>1616</v>
       </c>
       <c r="E91" s="156" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -30985,7 +30981,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B98" t="s">
         <v>802</v>
@@ -31027,7 +31023,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="143" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B101" s="143" t="s">
         <v>808</v>
@@ -31056,7 +31052,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B103" t="s">
         <v>813</v>
@@ -31212,7 +31208,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B114" t="s">
         <v>818</v>
@@ -31394,7 +31390,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B127" t="s">
         <v>768</v>
@@ -31408,10 +31404,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B128" t="s">
         <v>1844</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1845</v>
       </c>
       <c r="C128" s="143" t="s">
         <v>913</v>
@@ -31436,7 +31432,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B130" t="s">
         <v>865</v>
@@ -31453,7 +31449,7 @@
         <v>1455</v>
       </c>
       <c r="B131" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C131" s="143" t="s">
         <v>916</v>
@@ -31492,7 +31488,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B134" t="s">
         <v>838</v>
@@ -31506,7 +31502,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B135" t="s">
         <v>779</v>
@@ -31534,7 +31530,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B137" t="s">
         <v>777</v>
@@ -31548,7 +31544,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B138" t="s">
         <v>771</v>
@@ -31576,7 +31572,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="156" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B140" s="156" t="s">
         <v>766</v>
@@ -31588,7 +31584,7 @@
         <v>1226</v>
       </c>
       <c r="E140" s="156" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -31649,13 +31645,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="145" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B145" s="145" t="s">
         <v>1847</v>
       </c>
-      <c r="B145" s="145" t="s">
-        <v>1848</v>
-      </c>
       <c r="E145" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -31666,7 +31662,7 @@
         <v>801</v>
       </c>
       <c r="E146" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -31677,7 +31673,7 @@
         <v>847</v>
       </c>
       <c r="E147" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -31685,32 +31681,32 @@
         <v>1489</v>
       </c>
       <c r="B148" s="145" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E148" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="155" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B149" s="155" t="s">
         <v>1864</v>
       </c>
-      <c r="B149" s="155" t="s">
-        <v>1865</v>
-      </c>
       <c r="E149" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="155" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B150" s="155" t="s">
         <v>1866</v>
       </c>
-      <c r="B150" s="155" t="s">
-        <v>1867</v>
-      </c>
       <c r="E150" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -31718,23 +31714,23 @@
         <v>1497</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C151" s="13"/>
       <c r="E151" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>411</v>
       </c>
       <c r="C152" s="13"/>
       <c r="E152" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -31745,51 +31741,51 @@
         <v>416</v>
       </c>
       <c r="E153" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B154" t="s">
         <v>1880</v>
       </c>
-      <c r="B154" t="s">
-        <v>1881</v>
-      </c>
       <c r="E154" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B155" t="s">
         <v>1882</v>
       </c>
-      <c r="B155" t="s">
-        <v>1883</v>
-      </c>
       <c r="E155" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B156" t="s">
         <v>1884</v>
       </c>
-      <c r="B156" t="s">
-        <v>1885</v>
-      </c>
       <c r="E156" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B157" t="s">
         <v>1886</v>
       </c>
-      <c r="B157" t="s">
-        <v>1887</v>
-      </c>
       <c r="E157" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
   </sheetData>
